--- a/InputData/geoeng/DACD/Direct Air Capture Data.xlsx
+++ b/InputData/geoeng/DACD/Direct Air Capture Data.xlsx
@@ -1,34 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\Desktop\eps-us develop DACD\InputData\geoeng\DACD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.1.2\InputData\geoeng\DACD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DB89F9-AA00-47A5-A09D-D6F9F4A41987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23415" windowHeight="10875"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="DACD-potential" sheetId="3" r:id="rId3"/>
-    <sheet name="DACD-energyintensity" sheetId="5" r:id="rId4"/>
-    <sheet name="DACD-capex" sheetId="6" r:id="rId5"/>
+    <sheet name="Texas Data" sheetId="8" r:id="rId3"/>
+    <sheet name="DACD-potential" sheetId="3" r:id="rId4"/>
+    <sheet name="DACD-energyintensity" sheetId="5" r:id="rId5"/>
+    <sheet name="DACD-capex" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="135">
   <si>
     <t>Sources:</t>
   </si>
@@ -289,17 +299,161 @@
   </si>
   <si>
     <t>Amortized CapEx and OM Cost Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here, we replace the US GDP values with the Texas GDP values. i.e., we make the same assumption that global DAC investment will be done proportionally to GDP. </t>
+  </si>
+  <si>
+    <t>Texas GDP</t>
+  </si>
+  <si>
+    <t>Texas GDP share</t>
+  </si>
+  <si>
+    <t>https://www.bea.gov/data/gdp/gdp-state</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0959652619307772</t>
+  </si>
+  <si>
+    <t>Here's an alternative source to consider (by Fasihi)</t>
+  </si>
+  <si>
+    <t>this source was published in the same month as the one EPS cites (by Realmonte), but it is more bullish about DAC costs and adoption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basically, the Realmonte study assumes very little DAC by 2050 and high, constant costs. </t>
+  </si>
+  <si>
+    <t>the Fasihi study assumes a bit more DAC adoption and costs that get lower over time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realmonte Adoption (DAC1 Mtco2/yr) </t>
+  </si>
+  <si>
+    <t>These studies both look at technologies that "ues water solutions containing hydroxide sorbents", which Realmonte calls "DAC1" and Fasihi calls "HT" (high temperature). These are the technologies described below.</t>
+  </si>
+  <si>
+    <t>Um, this is not correct… DAC2 is clearly dominant…</t>
+  </si>
+  <si>
+    <t>DAC1 / HT (high temperature)</t>
+  </si>
+  <si>
+    <t>DAC2 / LT (low temperature)</t>
+  </si>
+  <si>
+    <t>smaller scale, modular, uses amine materials bonded to a solid support, uses lower input heat which can use electricity</t>
+  </si>
+  <si>
+    <t>larger scale, uses water solutions containing hydroxide sorbents, requires high input heat which usually means burning fuels like natural gas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPS only uses the Realmonte Study, but we will average the results of both studies to get something more averaged out. It turns out that Realmonte seems a bit conservative while Fasihi may be a bit optimistic. Given the large </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uncertainty in DACs, it seems prudent to consider both and take their average. </t>
+  </si>
+  <si>
+    <t>Note that Fasihi uses 2018 Euros using a constant 1.33 USD conversion rate. So, to convert from thes 2018 Euros to 2012 USD, we multiply by (1.33*0.91)</t>
+  </si>
+  <si>
+    <t>Fasihi (Table 6) Cap Cost $/ton (Base Case)</t>
+  </si>
+  <si>
+    <t>Fasihi (Table 6) Cap Cost $/ton (Conservative)</t>
+  </si>
+  <si>
+    <t>Fasihi (Table 6) Cap Cost $/ton (Average)</t>
+  </si>
+  <si>
+    <t>Adoption Rate / Global DACs Demand</t>
+  </si>
+  <si>
+    <t>Fasihi (Table 5) Adoption (Mtco2/yr) (Base Case)</t>
+  </si>
+  <si>
+    <t>Fasihi (Table 5) Adoption (Mtco2/yr) (Conservative)</t>
+  </si>
+  <si>
+    <t>Fasihi (Table 5) Adoption (Mtco2/yr) (Average)</t>
+  </si>
+  <si>
+    <t>Note that Fasihi has "conservative" and "base case" scenarios and Realmonte often gives "high" and "low" numbers. We take the average in both cases.</t>
+  </si>
+  <si>
+    <t>Realmonte Cap Cost $/ton (High case)</t>
+  </si>
+  <si>
+    <t>Realmonte Cap Cost $/ton (Low case)</t>
+  </si>
+  <si>
+    <t>Realmonte Cap Cost $/ton (Average)</t>
+  </si>
+  <si>
+    <t>Realmonte Electricity GJ/ton (Low case)</t>
+  </si>
+  <si>
+    <t>Realmonte Electricity GJ/ton (High case)</t>
+  </si>
+  <si>
+    <t>Realmonte Electricity GJ/ton (Average)</t>
+  </si>
+  <si>
+    <t>Realmonte Heat GJ/ton (Low case)</t>
+  </si>
+  <si>
+    <t>Realmonte Heat GJ/ton (High case)</t>
+  </si>
+  <si>
+    <t>Realmonte Heat GJ/ton (Average)</t>
+  </si>
+  <si>
+    <t>Fasihi also provides a good argument that DAC technology calculations should focus on electrification. That is, when gas or hydrogen is used for the input heat, the sustainability or energy intensity become unattractive.</t>
+  </si>
+  <si>
+    <t>So we will convert Realmonte's numbers, which assume nutural gas as the heat input, into electricity only.</t>
+  </si>
+  <si>
+    <t>Realmonte Electricity btu/ton (Average)</t>
+  </si>
+  <si>
+    <t>Realmonte Heat btu/ton (Average)</t>
+  </si>
+  <si>
+    <t>Realmonte Total btu/ton (Average)</t>
+  </si>
+  <si>
+    <t>Fasihi (Table 7) Energy kWh/ton</t>
+  </si>
+  <si>
+    <t>Fasihi (Table 7) Energy btu/ton</t>
+  </si>
+  <si>
+    <t>Average btu/ton</t>
+  </si>
+  <si>
+    <t>Average $/ton</t>
+  </si>
+  <si>
+    <t>Average Mt/year</t>
+  </si>
+  <si>
+    <t>DAC1/HT: can use natural gas for heat, but we assume it will be electrified</t>
+  </si>
+  <si>
+    <t>Texas Average Mt/year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,8 +492,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,6 +546,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -379,7 +567,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -402,6 +590,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -438,7 +651,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -482,7 +701,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -776,10 +1001,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -907,8 +1134,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1"/>
-    <hyperlink ref="B11" r:id="rId2"/>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -916,10 +1143,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1037,7 +1266,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1048,17 +1277,17 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1069,7 +1298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1080,7 +1309,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1091,27 +1320,34 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F27" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>24</v>
       </c>
@@ -1421,11 +1657,11 @@
         <v>0</v>
       </c>
       <c r="C78" s="8">
-        <f t="shared" ref="C78:H79" si="1">C64*$B$74</f>
+        <f>C64*$B$74</f>
         <v>8.6562499999999987E-2</v>
       </c>
       <c r="D78" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C78:H79" si="1">D64*$B$74</f>
         <v>0.34624999999999995</v>
       </c>
       <c r="E78" s="8">
@@ -1611,6 +1847,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F27:J27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1618,18 +1857,843 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C686EB8-A5A6-4682-9510-E2AB00CB780B}">
+  <dimension ref="A1:J59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:E41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.28515625" customWidth="1"/>
+    <col min="2" max="8" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21">
+        <v>2020</v>
+      </c>
+      <c r="C21">
+        <v>2030</v>
+      </c>
+      <c r="D21">
+        <v>2040</v>
+      </c>
+      <c r="E21">
+        <v>2050</v>
+      </c>
+      <c r="F21">
+        <v>2060</v>
+      </c>
+      <c r="G21">
+        <v>2100</v>
+      </c>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="26">
+        <v>180</v>
+      </c>
+      <c r="C22" s="26">
+        <v>180</v>
+      </c>
+      <c r="D22" s="26">
+        <v>180</v>
+      </c>
+      <c r="E22" s="26">
+        <v>180</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26">
+        <v>100</v>
+      </c>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="26">
+        <v>300</v>
+      </c>
+      <c r="C23" s="26">
+        <v>300</v>
+      </c>
+      <c r="D23" s="26">
+        <v>300</v>
+      </c>
+      <c r="E23" s="26">
+        <v>300</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26">
+        <v>100</v>
+      </c>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24">
+        <f>AVERAGE(B22:B23)</f>
+        <v>240</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:G24" si="0">AVERAGE(C22:C23)</f>
+        <v>240</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="24">
+        <f>815*(1.33*0.91)</f>
+        <v>986.39450000000011</v>
+      </c>
+      <c r="C25" s="24">
+        <f>378*(1.33*0.91)</f>
+        <v>457.49340000000007</v>
+      </c>
+      <c r="D25" s="24">
+        <f>265*(1.33*0.91)</f>
+        <v>320.72950000000003</v>
+      </c>
+      <c r="E25" s="24">
+        <f>222*(1.33*0.91)</f>
+        <v>268.68660000000006</v>
+      </c>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="24">
+        <f>815*(1.33*0.91)</f>
+        <v>986.39450000000011</v>
+      </c>
+      <c r="C26" s="24">
+        <f>211*(1.33*0.91)</f>
+        <v>255.37330000000003</v>
+      </c>
+      <c r="D26" s="24">
+        <f>122*(1.33*0.91)</f>
+        <v>147.65660000000003</v>
+      </c>
+      <c r="E26" s="24">
+        <f>93*(1.33*0.91)</f>
+        <v>112.55790000000002</v>
+      </c>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="14">
+        <f>AVERAGE(B25:B26)</f>
+        <v>986.39450000000011</v>
+      </c>
+      <c r="C27" s="14">
+        <f t="shared" ref="C27:E27" si="1">AVERAGE(C25:C26)</f>
+        <v>356.43335000000002</v>
+      </c>
+      <c r="D27" s="14">
+        <f t="shared" si="1"/>
+        <v>234.19305000000003</v>
+      </c>
+      <c r="E27" s="14">
+        <f t="shared" si="1"/>
+        <v>190.62225000000004</v>
+      </c>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="29">
+        <f>AVERAGE(B27,B24)</f>
+        <v>613.19725000000005</v>
+      </c>
+      <c r="C28" s="29">
+        <f t="shared" ref="C28:E28" si="2">AVERAGE(C27,C24)</f>
+        <v>298.21667500000001</v>
+      </c>
+      <c r="D28" s="29">
+        <f t="shared" si="2"/>
+        <v>237.09652500000001</v>
+      </c>
+      <c r="E28" s="29">
+        <f t="shared" si="2"/>
+        <v>215.311125</v>
+      </c>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="8">
+        <f>AVERAGE(B30:B31)</f>
+        <v>1.55</v>
+      </c>
+      <c r="C32" s="8">
+        <f t="shared" ref="C32:E32" si="3">AVERAGE(C30:C31)</f>
+        <v>1.55</v>
+      </c>
+      <c r="D32" s="8">
+        <f t="shared" si="3"/>
+        <v>1.55</v>
+      </c>
+      <c r="E32" s="8">
+        <f t="shared" si="3"/>
+        <v>1.55</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="14">
+        <f>B32*947817</f>
+        <v>1469116.35</v>
+      </c>
+      <c r="C33" s="14">
+        <f t="shared" ref="C33:E33" si="4">C32*947817</f>
+        <v>1469116.35</v>
+      </c>
+      <c r="D33" s="14">
+        <f t="shared" si="4"/>
+        <v>1469116.35</v>
+      </c>
+      <c r="E33" s="14">
+        <f t="shared" si="4"/>
+        <v>1469116.35</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="C34" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="D34" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="E34" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="C35" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="D35" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="E35" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="8">
+        <f>AVERAGE(B34:B35)</f>
+        <v>6.6999999999999993</v>
+      </c>
+      <c r="C36" s="8">
+        <f t="shared" ref="C36" si="5">AVERAGE(C34:C35)</f>
+        <v>6.6999999999999993</v>
+      </c>
+      <c r="D36" s="8">
+        <f t="shared" ref="D36" si="6">AVERAGE(D34:D35)</f>
+        <v>6.6999999999999993</v>
+      </c>
+      <c r="E36" s="8">
+        <f t="shared" ref="E36" si="7">AVERAGE(E34:E35)</f>
+        <v>6.6999999999999993</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="14">
+        <f>B36*947817</f>
+        <v>6350373.8999999994</v>
+      </c>
+      <c r="C37" s="14">
+        <f t="shared" ref="C37:E37" si="8">C36*947817</f>
+        <v>6350373.8999999994</v>
+      </c>
+      <c r="D37" s="14">
+        <f t="shared" si="8"/>
+        <v>6350373.8999999994</v>
+      </c>
+      <c r="E37" s="14">
+        <f t="shared" si="8"/>
+        <v>6350373.8999999994</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="14">
+        <f>SUM(B37,B33)</f>
+        <v>7819490.25</v>
+      </c>
+      <c r="C38" s="14">
+        <f t="shared" ref="C38:E38" si="9">SUM(C37,C33)</f>
+        <v>7819490.25</v>
+      </c>
+      <c r="D38" s="14">
+        <f t="shared" si="9"/>
+        <v>7819490.25</v>
+      </c>
+      <c r="E38" s="14">
+        <f t="shared" si="9"/>
+        <v>7819490.25</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="14">
+        <v>1535</v>
+      </c>
+      <c r="C39" s="14">
+        <v>1458</v>
+      </c>
+      <c r="D39" s="14">
+        <v>1385</v>
+      </c>
+      <c r="E39" s="14">
+        <v>1316</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="14">
+        <f>B39*3412</f>
+        <v>5237420</v>
+      </c>
+      <c r="C40" s="14">
+        <f t="shared" ref="C40:E40" si="10">C39*3412</f>
+        <v>4974696</v>
+      </c>
+      <c r="D40" s="14">
+        <f t="shared" si="10"/>
+        <v>4725620</v>
+      </c>
+      <c r="E40" s="14">
+        <f t="shared" si="10"/>
+        <v>4490192</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" s="14">
+        <f>AVERAGE(B40,B38)</f>
+        <v>6528455.125</v>
+      </c>
+      <c r="C41" s="14">
+        <f t="shared" ref="C41:E41" si="11">AVERAGE(C40,C38)</f>
+        <v>6397093.125</v>
+      </c>
+      <c r="D41" s="14">
+        <f t="shared" si="11"/>
+        <v>6272555.125</v>
+      </c>
+      <c r="E41" s="14">
+        <f t="shared" si="11"/>
+        <v>6154841.125</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="28"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="14">
+        <v>0</v>
+      </c>
+      <c r="C44" s="14">
+        <v>0</v>
+      </c>
+      <c r="D44" s="14">
+        <v>0</v>
+      </c>
+      <c r="E44" s="14">
+        <v>400</v>
+      </c>
+      <c r="F44">
+        <v>1500</v>
+      </c>
+      <c r="G44" s="14">
+        <v>30000</v>
+      </c>
+      <c r="J44" s="6"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="24">
+        <v>3</v>
+      </c>
+      <c r="C45" s="24">
+        <v>473</v>
+      </c>
+      <c r="D45" s="24">
+        <v>4791</v>
+      </c>
+      <c r="E45" s="24">
+        <v>15356</v>
+      </c>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="27">
+        <f>B45*0.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="C46" s="24">
+        <f t="shared" ref="C46:E46" si="12">C45*0.5</f>
+        <v>236.5</v>
+      </c>
+      <c r="D46" s="24">
+        <f t="shared" si="12"/>
+        <v>2395.5</v>
+      </c>
+      <c r="E46" s="24">
+        <f t="shared" si="12"/>
+        <v>7678</v>
+      </c>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="J46" s="6"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="19">
+        <f>AVERAGE(B45:B46)</f>
+        <v>2.25</v>
+      </c>
+      <c r="C47" s="14">
+        <f t="shared" ref="C47:E47" si="13">AVERAGE(C45:C46)</f>
+        <v>354.75</v>
+      </c>
+      <c r="D47" s="14">
+        <f t="shared" si="13"/>
+        <v>3593.25</v>
+      </c>
+      <c r="E47" s="14">
+        <f t="shared" si="13"/>
+        <v>11517</v>
+      </c>
+      <c r="J47" s="6"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" s="14">
+        <f>AVERAGE(B47,B44)</f>
+        <v>1.125</v>
+      </c>
+      <c r="C48" s="14">
+        <f t="shared" ref="C48:E48" si="14">AVERAGE(C47,C44)</f>
+        <v>177.375</v>
+      </c>
+      <c r="D48" s="14">
+        <f t="shared" si="14"/>
+        <v>1796.625</v>
+      </c>
+      <c r="E48" s="14">
+        <f t="shared" si="14"/>
+        <v>5958.5</v>
+      </c>
+      <c r="J48" s="6"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="21"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="J49" s="6"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="20">
+        <v>1.6688000000000001</v>
+      </c>
+      <c r="D55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55">
+        <v>2017</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56">
+        <v>80</v>
+      </c>
+      <c r="D56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56">
+        <v>2017</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="10">
+        <f>C55/C56</f>
+        <v>2.086E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" s="32">
+        <f>B48*$C$57</f>
+        <v>2.3467499999999999E-2</v>
+      </c>
+      <c r="C59" s="32">
+        <f t="shared" ref="C59:E59" si="15">C48*$C$57</f>
+        <v>3.7000424999999999</v>
+      </c>
+      <c r="D59" s="32">
+        <f t="shared" si="15"/>
+        <v>37.477597500000002</v>
+      </c>
+      <c r="E59" s="32">
+        <f t="shared" si="15"/>
+        <v>124.29431</v>
+      </c>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{45DD5CF1-C46A-42D6-A7D7-A22A80577B18}"/>
+    <hyperlink ref="G56" r:id="rId2" xr:uid="{89957D1A-BCF1-498F-B397-AE2ACF2DE8B9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:N2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="12" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
@@ -1749,107 +2813,132 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <f>TREND(Data!$B$83:$C$83,Data!$B$82:$C$82,AD$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <f>TREND(Data!$B$83:$C$83,Data!$B$82:$C$82,AE$1)</f>
-        <v>17312500</v>
-      </c>
-      <c r="AF2">
-        <f>TREND(Data!$B$83:$C$83,Data!$B$82:$C$82,AF$1)</f>
-        <v>34625000</v>
-      </c>
-      <c r="AG2">
-        <f>TREND(Data!$B$83:$C$83,Data!$B$82:$C$82,AG$1)</f>
-        <v>51937500</v>
-      </c>
-      <c r="AH2">
-        <f>TREND(Data!$B$83:$C$83,Data!$B$82:$C$82,AH$1)</f>
-        <v>69250000</v>
+      <c r="D2" s="14">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14">
+        <f>'Texas Data'!B59*1000000</f>
+        <v>23467.5</v>
+      </c>
+      <c r="F2" s="14">
+        <f>0.9*E2+0.1*O2</f>
+        <v>391125</v>
+      </c>
+      <c r="G2" s="14">
+        <f>0.8*E2+0.2*O2</f>
+        <v>758782.5</v>
+      </c>
+      <c r="H2" s="14">
+        <f>0.7*E2+0.3*O2</f>
+        <v>1126440</v>
+      </c>
+      <c r="I2" s="14">
+        <f>0.6*E2+0.4*O2</f>
+        <v>1494097.5</v>
+      </c>
+      <c r="J2" s="14">
+        <f>0.5*E2+0.5*O2</f>
+        <v>1861755</v>
+      </c>
+      <c r="K2" s="14">
+        <f>0.4*E2+0.6*O2</f>
+        <v>2229412.5</v>
+      </c>
+      <c r="L2" s="14">
+        <f>0.3*E2+0.7*O2</f>
+        <v>2597070</v>
+      </c>
+      <c r="M2" s="14">
+        <f>0.2*E2+0.8*O2</f>
+        <v>2964727.5</v>
+      </c>
+      <c r="N2" s="14">
+        <f>0.1*E2+0.9*O2</f>
+        <v>3332385</v>
+      </c>
+      <c r="O2" s="14">
+        <f>'Texas Data'!C59*1000000</f>
+        <v>3700042.5</v>
+      </c>
+      <c r="P2" s="14">
+        <f>0.9*O2+0.1*Y2</f>
+        <v>7077798</v>
+      </c>
+      <c r="Q2" s="14">
+        <f>0.8*O2+0.2*Y2</f>
+        <v>10455553.5</v>
+      </c>
+      <c r="R2" s="14">
+        <f>0.7*O2+0.3*Y2</f>
+        <v>13833309</v>
+      </c>
+      <c r="S2" s="14">
+        <f>0.6*O2+0.4*Y2</f>
+        <v>17211064.5</v>
+      </c>
+      <c r="T2" s="14">
+        <f>0.5*O2+0.5*Y2</f>
+        <v>20588820</v>
+      </c>
+      <c r="U2" s="14">
+        <f>0.4*O2+0.6*Y2</f>
+        <v>23966575.5</v>
+      </c>
+      <c r="V2" s="14">
+        <f>0.3*O2+0.7*Y2</f>
+        <v>27344331</v>
+      </c>
+      <c r="W2" s="14">
+        <f>0.2*O2+0.8*Y2</f>
+        <v>30722086.5</v>
+      </c>
+      <c r="X2" s="14">
+        <f>0.1*O2+0.9*Y2</f>
+        <v>34099842</v>
+      </c>
+      <c r="Y2" s="14">
+        <f>'Texas Data'!D59*1000000</f>
+        <v>37477597.5</v>
+      </c>
+      <c r="Z2" s="14">
+        <f>0.9*Y2+0.1*AI2</f>
+        <v>46159268.75</v>
+      </c>
+      <c r="AA2" s="14">
+        <f>0.8*Y2+0.2*AI2</f>
+        <v>54840940</v>
+      </c>
+      <c r="AB2" s="14">
+        <f>0.7*Y2+0.3*AI2</f>
+        <v>63522611.25</v>
+      </c>
+      <c r="AC2" s="14">
+        <f>0.6*Y2+0.4*AI2</f>
+        <v>72204282.5</v>
+      </c>
+      <c r="AD2" s="14">
+        <f>0.5*Y2+0.5*AI2</f>
+        <v>80885953.75</v>
+      </c>
+      <c r="AE2" s="14">
+        <f>0.4*Y2+0.6*AI2</f>
+        <v>89567625</v>
+      </c>
+      <c r="AF2" s="14">
+        <f>0.3*Y2+0.7*AI2</f>
+        <v>98249296.25</v>
+      </c>
+      <c r="AG2" s="14">
+        <f>0.2*Y2+0.8*AI2</f>
+        <v>106930967.5</v>
+      </c>
+      <c r="AH2" s="14">
+        <f>0.1*Y2+0.9*AI2</f>
+        <v>115612638.75</v>
       </c>
       <c r="AI2">
-        <f>TREND(Data!$B$83:$C$83,Data!$B$82:$C$82,AI$1)</f>
-        <v>86562500</v>
+        <f>'Texas Data'!E59*1000000</f>
+        <v>124294310</v>
       </c>
     </row>
   </sheetData>
@@ -1857,14 +2946,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:N2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1984,140 +3075,140 @@
         <v>68</v>
       </c>
       <c r="B2" s="14">
-        <f>Data!B16*Data!B92</f>
-        <v>1704754.8</v>
+        <f t="shared" ref="B2:C2" si="0">C2</f>
+        <v>6528455.125</v>
       </c>
       <c r="C2" s="14">
-        <f>$B2</f>
-        <v>1704754.8</v>
+        <f t="shared" si="0"/>
+        <v>6528455.125</v>
       </c>
       <c r="D2" s="14">
-        <f t="shared" ref="D2:AI10" si="0">$B2</f>
-        <v>1704754.8</v>
+        <f>E2</f>
+        <v>6528455.125</v>
       </c>
       <c r="E2" s="14">
-        <f t="shared" si="0"/>
-        <v>1704754.8</v>
+        <f>'Texas Data'!B41</f>
+        <v>6528455.125</v>
       </c>
       <c r="F2" s="14">
-        <f t="shared" si="0"/>
-        <v>1704754.8</v>
+        <f>0.9*E2+0.1*O2</f>
+        <v>6515318.9249999998</v>
       </c>
       <c r="G2" s="14">
-        <f t="shared" si="0"/>
-        <v>1704754.8</v>
+        <f>0.8*E2+0.2*O2</f>
+        <v>6502182.7250000006</v>
       </c>
       <c r="H2" s="14">
-        <f t="shared" si="0"/>
-        <v>1704754.8</v>
+        <f>0.7*E2+0.3*O2</f>
+        <v>6489046.5249999994</v>
       </c>
       <c r="I2" s="14">
-        <f t="shared" si="0"/>
-        <v>1704754.8</v>
+        <f>0.6*E2+0.4*O2</f>
+        <v>6475910.3249999993</v>
       </c>
       <c r="J2" s="14">
-        <f t="shared" si="0"/>
-        <v>1704754.8</v>
+        <f>0.5*E2+0.5*O2</f>
+        <v>6462774.125</v>
       </c>
       <c r="K2" s="14">
-        <f t="shared" si="0"/>
-        <v>1704754.8</v>
+        <f>0.4*E2+0.6*O2</f>
+        <v>6449637.9250000007</v>
       </c>
       <c r="L2" s="14">
-        <f t="shared" si="0"/>
-        <v>1704754.8</v>
+        <f>0.3*E2+0.7*O2</f>
+        <v>6436501.7249999996</v>
       </c>
       <c r="M2" s="14">
-        <f t="shared" si="0"/>
-        <v>1704754.8</v>
+        <f>0.2*E2+0.8*O2</f>
+        <v>6423365.5250000004</v>
       </c>
       <c r="N2" s="14">
-        <f t="shared" si="0"/>
-        <v>1704754.8</v>
+        <f>0.1*E2+0.9*O2</f>
+        <v>6410229.3250000002</v>
       </c>
       <c r="O2" s="14">
-        <f t="shared" si="0"/>
-        <v>1704754.8</v>
+        <f>'Texas Data'!C41</f>
+        <v>6397093.125</v>
       </c>
       <c r="P2" s="14">
-        <f t="shared" si="0"/>
-        <v>1704754.8</v>
+        <f>0.9*O2+0.1*Y2</f>
+        <v>6384639.3250000002</v>
       </c>
       <c r="Q2" s="14">
-        <f t="shared" si="0"/>
-        <v>1704754.8</v>
+        <f>0.8*O2+0.2*Y2</f>
+        <v>6372185.5250000004</v>
       </c>
       <c r="R2" s="14">
-        <f t="shared" si="0"/>
-        <v>1704754.8</v>
+        <f>0.7*O2+0.3*Y2</f>
+        <v>6359731.7249999996</v>
       </c>
       <c r="S2" s="14">
-        <f t="shared" si="0"/>
-        <v>1704754.8</v>
+        <f>0.6*O2+0.4*Y2</f>
+        <v>6347277.9250000007</v>
       </c>
       <c r="T2" s="14">
-        <f t="shared" si="0"/>
-        <v>1704754.8</v>
+        <f>0.5*O2+0.5*Y2</f>
+        <v>6334824.125</v>
       </c>
       <c r="U2" s="14">
-        <f t="shared" si="0"/>
-        <v>1704754.8</v>
+        <f>0.4*O2+0.6*Y2</f>
+        <v>6322370.3249999993</v>
       </c>
       <c r="V2" s="14">
-        <f t="shared" si="0"/>
-        <v>1704754.8</v>
+        <f>0.3*O2+0.7*Y2</f>
+        <v>6309916.5249999994</v>
       </c>
       <c r="W2" s="14">
-        <f t="shared" si="0"/>
-        <v>1704754.8</v>
+        <f>0.2*O2+0.8*Y2</f>
+        <v>6297462.7250000006</v>
       </c>
       <c r="X2" s="14">
-        <f t="shared" si="0"/>
-        <v>1704754.8</v>
+        <f>0.1*O2+0.9*Y2</f>
+        <v>6285008.9249999998</v>
       </c>
       <c r="Y2" s="14">
-        <f t="shared" si="0"/>
-        <v>1704754.8</v>
+        <f>'Texas Data'!D41</f>
+        <v>6272555.125</v>
       </c>
       <c r="Z2" s="14">
-        <f t="shared" si="0"/>
-        <v>1704754.8</v>
+        <f>0.9*Y2+0.1*AI2</f>
+        <v>6260783.7249999996</v>
       </c>
       <c r="AA2" s="14">
-        <f t="shared" si="0"/>
-        <v>1704754.8</v>
+        <f>0.8*Y2+0.2*AI2</f>
+        <v>6249012.3250000011</v>
       </c>
       <c r="AB2" s="14">
-        <f t="shared" si="0"/>
-        <v>1704754.8</v>
+        <f>0.7*Y2+0.3*AI2</f>
+        <v>6237240.9249999989</v>
       </c>
       <c r="AC2" s="14">
-        <f t="shared" si="0"/>
-        <v>1704754.8</v>
+        <f>0.6*Y2+0.4*AI2</f>
+        <v>6225469.5250000004</v>
       </c>
       <c r="AD2" s="14">
-        <f t="shared" si="0"/>
-        <v>1704754.8</v>
+        <f>0.5*Y2+0.5*AI2</f>
+        <v>6213698.125</v>
       </c>
       <c r="AE2" s="14">
-        <f t="shared" si="0"/>
-        <v>1704754.8</v>
+        <f>0.4*Y2+0.6*AI2</f>
+        <v>6201926.7249999996</v>
       </c>
       <c r="AF2" s="14">
-        <f t="shared" si="0"/>
-        <v>1704754.8</v>
+        <f>0.3*Y2+0.7*AI2</f>
+        <v>6190155.3249999993</v>
       </c>
       <c r="AG2" s="14">
-        <f t="shared" si="0"/>
-        <v>1704754.8</v>
+        <f>0.2*Y2+0.8*AI2</f>
+        <v>6178383.9250000007</v>
       </c>
       <c r="AH2" s="14">
-        <f t="shared" si="0"/>
-        <v>1704754.8</v>
+        <f>0.1*Y2+0.9*AI2</f>
+        <v>6166612.5250000004</v>
       </c>
       <c r="AI2" s="14">
-        <f t="shared" si="0"/>
-        <v>1704754.8</v>
+        <f>'Texas Data'!E41</f>
+        <v>6154841.125</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
@@ -2192,71 +3283,71 @@
         <v>0</v>
       </c>
       <c r="S3" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D2:AI10" si="2">$B3</f>
         <v>0</v>
       </c>
       <c r="T3" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U3" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V3" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W3" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X3" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y3" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z3" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA3" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB3" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC3" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD3" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE3" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF3" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG3" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH3" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI3" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2265,140 +3356,139 @@
         <v>70</v>
       </c>
       <c r="B4" s="14">
-        <f>Data!B22*Data!B92</f>
-        <v>7671396.5999999996</v>
+        <v>0</v>
       </c>
       <c r="C4" s="14">
         <f t="shared" si="1"/>
-        <v>7671396.5999999996</v>
+        <v>0</v>
       </c>
       <c r="D4" s="14">
-        <f t="shared" si="0"/>
-        <v>7671396.5999999996</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E4" s="14">
-        <f t="shared" si="0"/>
-        <v>7671396.5999999996</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F4" s="14">
-        <f t="shared" si="0"/>
-        <v>7671396.5999999996</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="G4" s="14">
-        <f t="shared" si="0"/>
-        <v>7671396.5999999996</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H4" s="14">
-        <f t="shared" si="0"/>
-        <v>7671396.5999999996</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I4" s="14">
-        <f t="shared" si="0"/>
-        <v>7671396.5999999996</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J4" s="14">
-        <f t="shared" si="0"/>
-        <v>7671396.5999999996</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="K4" s="14">
-        <f t="shared" si="0"/>
-        <v>7671396.5999999996</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L4" s="14">
-        <f t="shared" si="0"/>
-        <v>7671396.5999999996</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="M4" s="14">
-        <f t="shared" si="0"/>
-        <v>7671396.5999999996</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N4" s="14">
-        <f t="shared" si="0"/>
-        <v>7671396.5999999996</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="O4" s="14">
-        <f t="shared" si="0"/>
-        <v>7671396.5999999996</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P4" s="14">
-        <f t="shared" si="0"/>
-        <v>7671396.5999999996</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="Q4" s="14">
-        <f t="shared" si="0"/>
-        <v>7671396.5999999996</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="R4" s="14">
-        <f t="shared" si="0"/>
-        <v>7671396.5999999996</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="S4" s="14">
-        <f t="shared" si="0"/>
-        <v>7671396.5999999996</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="T4" s="14">
-        <f t="shared" si="0"/>
-        <v>7671396.5999999996</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="U4" s="14">
-        <f t="shared" si="0"/>
-        <v>7671396.5999999996</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="V4" s="14">
-        <f t="shared" si="0"/>
-        <v>7671396.5999999996</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="W4" s="14">
-        <f t="shared" si="0"/>
-        <v>7671396.5999999996</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X4" s="14">
-        <f t="shared" si="0"/>
-        <v>7671396.5999999996</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="Y4" s="14">
-        <f t="shared" si="0"/>
-        <v>7671396.5999999996</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="Z4" s="14">
-        <f t="shared" si="0"/>
-        <v>7671396.5999999996</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AA4" s="14">
-        <f t="shared" si="0"/>
-        <v>7671396.5999999996</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AB4" s="14">
-        <f t="shared" si="0"/>
-        <v>7671396.5999999996</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AC4" s="14">
-        <f t="shared" si="0"/>
-        <v>7671396.5999999996</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AD4" s="14">
-        <f t="shared" si="0"/>
-        <v>7671396.5999999996</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AE4" s="14">
-        <f t="shared" si="0"/>
-        <v>7671396.5999999996</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AF4" s="14">
-        <f t="shared" si="0"/>
-        <v>7671396.5999999996</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AG4" s="14">
-        <f t="shared" si="0"/>
-        <v>7671396.5999999996</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AH4" s="14">
-        <f t="shared" si="0"/>
-        <v>7671396.5999999996</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AI4" s="14">
-        <f t="shared" si="0"/>
-        <v>7671396.5999999996</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
@@ -2413,131 +3503,131 @@
         <v>0</v>
       </c>
       <c r="D5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2553,131 +3643,131 @@
         <v>0</v>
       </c>
       <c r="D6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2693,131 +3783,131 @@
         <v>0</v>
       </c>
       <c r="D7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2833,131 +3923,131 @@
         <v>0</v>
       </c>
       <c r="D8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2973,131 +4063,131 @@
         <v>0</v>
       </c>
       <c r="D9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3113,131 +4203,131 @@
         <v>0</v>
       </c>
       <c r="D10" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E10" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F10" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G10" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H10" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J10" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L10" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M10" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N10" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O10" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P10" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q10" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R10" s="14">
-        <f t="shared" ref="D10:AI11" si="2">$B10</f>
+        <f t="shared" ref="D10:AI11" si="3">$B10</f>
         <v>0</v>
       </c>
       <c r="S10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3253,131 +4343,131 @@
         <v>0</v>
       </c>
       <c r="D11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3386,14 +4476,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L34" sqref="L33:L34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3513,140 +4605,140 @@
         <v>58</v>
       </c>
       <c r="B2" s="14">
-        <f>Data!B10</f>
-        <v>300</v>
+        <f t="shared" ref="B2:C2" si="0">(C2-D2)+C2</f>
+        <v>707.69142249999993</v>
       </c>
       <c r="C2" s="14">
-        <f>$B2</f>
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>676.19336499999997</v>
       </c>
       <c r="D2" s="14">
-        <f t="shared" ref="D2:AI2" si="0">$B2</f>
-        <v>300</v>
+        <f>(E2-F2)+E2</f>
+        <v>644.69530750000001</v>
       </c>
       <c r="E2" s="14">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>'Texas Data'!B28</f>
+        <v>613.19725000000005</v>
       </c>
       <c r="F2" s="14">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>0.9*E2+0.1*O2</f>
+        <v>581.69919250000009</v>
       </c>
       <c r="G2" s="14">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>0.8*E2+0.2*O2</f>
+        <v>550.20113500000002</v>
       </c>
       <c r="H2" s="14">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>0.7*E2+0.3*O2</f>
+        <v>518.70307750000006</v>
       </c>
       <c r="I2" s="14">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>0.6*E2+0.4*O2</f>
+        <v>487.20502000000005</v>
       </c>
       <c r="J2" s="14">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>0.5*E2+0.5*O2</f>
+        <v>455.70696250000003</v>
       </c>
       <c r="K2" s="14">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>0.4*E2+0.6*O2</f>
+        <v>424.20890500000002</v>
       </c>
       <c r="L2" s="14">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>0.3*E2+0.7*O2</f>
+        <v>392.7108475</v>
       </c>
       <c r="M2" s="14">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>0.2*E2+0.8*O2</f>
+        <v>361.21279000000004</v>
       </c>
       <c r="N2" s="14">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>0.1*E2+0.9*O2</f>
+        <v>329.71473250000003</v>
       </c>
       <c r="O2" s="14">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>'Texas Data'!C28</f>
+        <v>298.21667500000001</v>
       </c>
       <c r="P2" s="14">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>0.9*O2+0.1*Y2</f>
+        <v>292.10466000000002</v>
       </c>
       <c r="Q2" s="14">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>0.8*O2+0.2*Y2</f>
+        <v>285.99264500000004</v>
       </c>
       <c r="R2" s="14">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>0.7*O2+0.3*Y2</f>
+        <v>279.88063</v>
       </c>
       <c r="S2" s="14">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>0.6*O2+0.4*Y2</f>
+        <v>273.76861500000001</v>
       </c>
       <c r="T2" s="14">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>0.5*O2+0.5*Y2</f>
+        <v>267.65660000000003</v>
       </c>
       <c r="U2" s="14">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>0.4*O2+0.6*Y2</f>
+        <v>261.54458499999998</v>
       </c>
       <c r="V2" s="14">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>0.3*O2+0.7*Y2</f>
+        <v>255.43257</v>
       </c>
       <c r="W2" s="14">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>0.2*O2+0.8*Y2</f>
+        <v>249.32055500000004</v>
       </c>
       <c r="X2" s="14">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>0.1*O2+0.9*Y2</f>
+        <v>243.20854000000003</v>
       </c>
       <c r="Y2" s="14">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>'Texas Data'!D28</f>
+        <v>237.09652500000001</v>
       </c>
       <c r="Z2" s="14">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>0.9*Y2+0.1*AI2</f>
+        <v>234.91798500000002</v>
       </c>
       <c r="AA2" s="14">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>0.8*Y2+0.2*AI2</f>
+        <v>232.73944500000005</v>
       </c>
       <c r="AB2" s="14">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>0.7*Y2+0.3*AI2</f>
+        <v>230.56090499999999</v>
       </c>
       <c r="AC2" s="14">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>0.6*Y2+0.4*AI2</f>
+        <v>228.38236499999999</v>
       </c>
       <c r="AD2" s="14">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>0.5*Y2+0.5*AI2</f>
+        <v>226.20382499999999</v>
       </c>
       <c r="AE2" s="14">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>0.4*Y2+0.6*AI2</f>
+        <v>224.02528500000003</v>
       </c>
       <c r="AF2" s="14">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>0.3*Y2+0.7*AI2</f>
+        <v>221.846745</v>
       </c>
       <c r="AG2" s="14">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>0.2*Y2+0.8*AI2</f>
+        <v>219.66820500000003</v>
       </c>
       <c r="AH2" s="14">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>0.1*Y2+0.9*AI2</f>
+        <v>217.489665</v>
       </c>
       <c r="AI2" s="14">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>'Texas Data'!E28</f>
+        <v>215.311125</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/geoeng/DACD/Direct Air Capture Data.xlsx
+++ b/InputData/geoeng/DACD/Direct Air Capture Data.xlsx
@@ -1,44 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.1.2\InputData\geoeng\DACD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\Desktop\eps-us develop DACD\InputData\geoeng\DACD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DB89F9-AA00-47A5-A09D-D6F9F4A41987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23415" windowHeight="10875"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Texas Data" sheetId="8" r:id="rId3"/>
-    <sheet name="DACD-potential" sheetId="3" r:id="rId4"/>
-    <sheet name="DACD-energyintensity" sheetId="5" r:id="rId5"/>
-    <sheet name="DACD-capex" sheetId="6" r:id="rId6"/>
+    <sheet name="DACD-potential" sheetId="3" r:id="rId3"/>
+    <sheet name="DACD-energyintensity" sheetId="5" r:id="rId4"/>
+    <sheet name="DACD-capex" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
   <si>
     <t>Sources:</t>
   </si>
@@ -299,161 +289,17 @@
   </si>
   <si>
     <t>Amortized CapEx and OM Cost Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here, we replace the US GDP values with the Texas GDP values. i.e., we make the same assumption that global DAC investment will be done proportionally to GDP. </t>
-  </si>
-  <si>
-    <t>Texas GDP</t>
-  </si>
-  <si>
-    <t>Texas GDP share</t>
-  </si>
-  <si>
-    <t>https://www.bea.gov/data/gdp/gdp-state</t>
-  </si>
-  <si>
-    <t>https://www.sciencedirect.com/science/article/pii/S0959652619307772</t>
-  </si>
-  <si>
-    <t>Here's an alternative source to consider (by Fasihi)</t>
-  </si>
-  <si>
-    <t>this source was published in the same month as the one EPS cites (by Realmonte), but it is more bullish about DAC costs and adoption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basically, the Realmonte study assumes very little DAC by 2050 and high, constant costs. </t>
-  </si>
-  <si>
-    <t>the Fasihi study assumes a bit more DAC adoption and costs that get lower over time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realmonte Adoption (DAC1 Mtco2/yr) </t>
-  </si>
-  <si>
-    <t>These studies both look at technologies that "ues water solutions containing hydroxide sorbents", which Realmonte calls "DAC1" and Fasihi calls "HT" (high temperature). These are the technologies described below.</t>
-  </si>
-  <si>
-    <t>Um, this is not correct… DAC2 is clearly dominant…</t>
-  </si>
-  <si>
-    <t>DAC1 / HT (high temperature)</t>
-  </si>
-  <si>
-    <t>DAC2 / LT (low temperature)</t>
-  </si>
-  <si>
-    <t>smaller scale, modular, uses amine materials bonded to a solid support, uses lower input heat which can use electricity</t>
-  </si>
-  <si>
-    <t>larger scale, uses water solutions containing hydroxide sorbents, requires high input heat which usually means burning fuels like natural gas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPS only uses the Realmonte Study, but we will average the results of both studies to get something more averaged out. It turns out that Realmonte seems a bit conservative while Fasihi may be a bit optimistic. Given the large </t>
-  </si>
-  <si>
-    <t xml:space="preserve">uncertainty in DACs, it seems prudent to consider both and take their average. </t>
-  </si>
-  <si>
-    <t>Note that Fasihi uses 2018 Euros using a constant 1.33 USD conversion rate. So, to convert from thes 2018 Euros to 2012 USD, we multiply by (1.33*0.91)</t>
-  </si>
-  <si>
-    <t>Fasihi (Table 6) Cap Cost $/ton (Base Case)</t>
-  </si>
-  <si>
-    <t>Fasihi (Table 6) Cap Cost $/ton (Conservative)</t>
-  </si>
-  <si>
-    <t>Fasihi (Table 6) Cap Cost $/ton (Average)</t>
-  </si>
-  <si>
-    <t>Adoption Rate / Global DACs Demand</t>
-  </si>
-  <si>
-    <t>Fasihi (Table 5) Adoption (Mtco2/yr) (Base Case)</t>
-  </si>
-  <si>
-    <t>Fasihi (Table 5) Adoption (Mtco2/yr) (Conservative)</t>
-  </si>
-  <si>
-    <t>Fasihi (Table 5) Adoption (Mtco2/yr) (Average)</t>
-  </si>
-  <si>
-    <t>Note that Fasihi has "conservative" and "base case" scenarios and Realmonte often gives "high" and "low" numbers. We take the average in both cases.</t>
-  </si>
-  <si>
-    <t>Realmonte Cap Cost $/ton (High case)</t>
-  </si>
-  <si>
-    <t>Realmonte Cap Cost $/ton (Low case)</t>
-  </si>
-  <si>
-    <t>Realmonte Cap Cost $/ton (Average)</t>
-  </si>
-  <si>
-    <t>Realmonte Electricity GJ/ton (Low case)</t>
-  </si>
-  <si>
-    <t>Realmonte Electricity GJ/ton (High case)</t>
-  </si>
-  <si>
-    <t>Realmonte Electricity GJ/ton (Average)</t>
-  </si>
-  <si>
-    <t>Realmonte Heat GJ/ton (Low case)</t>
-  </si>
-  <si>
-    <t>Realmonte Heat GJ/ton (High case)</t>
-  </si>
-  <si>
-    <t>Realmonte Heat GJ/ton (Average)</t>
-  </si>
-  <si>
-    <t>Fasihi also provides a good argument that DAC technology calculations should focus on electrification. That is, when gas or hydrogen is used for the input heat, the sustainability or energy intensity become unattractive.</t>
-  </si>
-  <si>
-    <t>So we will convert Realmonte's numbers, which assume nutural gas as the heat input, into electricity only.</t>
-  </si>
-  <si>
-    <t>Realmonte Electricity btu/ton (Average)</t>
-  </si>
-  <si>
-    <t>Realmonte Heat btu/ton (Average)</t>
-  </si>
-  <si>
-    <t>Realmonte Total btu/ton (Average)</t>
-  </si>
-  <si>
-    <t>Fasihi (Table 7) Energy kWh/ton</t>
-  </si>
-  <si>
-    <t>Fasihi (Table 7) Energy btu/ton</t>
-  </si>
-  <si>
-    <t>Average btu/ton</t>
-  </si>
-  <si>
-    <t>Average $/ton</t>
-  </si>
-  <si>
-    <t>Average Mt/year</t>
-  </si>
-  <si>
-    <t>DAC1/HT: can use natural gas for heat, but we assume it will be electrified</t>
-  </si>
-  <si>
-    <t>Texas Average Mt/year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,36 +338,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -546,12 +364,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -567,7 +379,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -590,31 +402,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -651,13 +438,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -701,13 +482,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1001,12 +776,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1134,8 +907,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B9" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1143,12 +916,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1266,7 +1037,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1277,17 +1048,17 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1298,7 +1069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1309,7 +1080,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1320,34 +1091,27 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>24</v>
       </c>
@@ -1657,11 +1421,11 @@
         <v>0</v>
       </c>
       <c r="C78" s="8">
-        <f>C64*$B$74</f>
+        <f t="shared" ref="C78:H79" si="1">C64*$B$74</f>
         <v>8.6562499999999987E-2</v>
       </c>
       <c r="D78" s="8">
-        <f t="shared" ref="C78:H79" si="1">D64*$B$74</f>
+        <f t="shared" si="1"/>
         <v>0.34624999999999995</v>
       </c>
       <c r="E78" s="8">
@@ -1847,9 +1611,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F27:J27"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1857,843 +1618,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C686EB8-A5A6-4682-9510-E2AB00CB780B}">
-  <dimension ref="A1:J59"/>
-  <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:E41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="46.28515625" customWidth="1"/>
-    <col min="2" max="8" width="11.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21">
-        <v>2020</v>
-      </c>
-      <c r="C21">
-        <v>2030</v>
-      </c>
-      <c r="D21">
-        <v>2040</v>
-      </c>
-      <c r="E21">
-        <v>2050</v>
-      </c>
-      <c r="F21">
-        <v>2060</v>
-      </c>
-      <c r="G21">
-        <v>2100</v>
-      </c>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22" s="26">
-        <v>180</v>
-      </c>
-      <c r="C22" s="26">
-        <v>180</v>
-      </c>
-      <c r="D22" s="26">
-        <v>180</v>
-      </c>
-      <c r="E22" s="26">
-        <v>180</v>
-      </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26">
-        <v>100</v>
-      </c>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" s="26">
-        <v>300</v>
-      </c>
-      <c r="C23" s="26">
-        <v>300</v>
-      </c>
-      <c r="D23" s="26">
-        <v>300</v>
-      </c>
-      <c r="E23" s="26">
-        <v>300</v>
-      </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26">
-        <v>100</v>
-      </c>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24">
-        <f>AVERAGE(B22:B23)</f>
-        <v>240</v>
-      </c>
-      <c r="C24">
-        <f t="shared" ref="C24:G24" si="0">AVERAGE(C22:C23)</f>
-        <v>240</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="24">
-        <f>815*(1.33*0.91)</f>
-        <v>986.39450000000011</v>
-      </c>
-      <c r="C25" s="24">
-        <f>378*(1.33*0.91)</f>
-        <v>457.49340000000007</v>
-      </c>
-      <c r="D25" s="24">
-        <f>265*(1.33*0.91)</f>
-        <v>320.72950000000003</v>
-      </c>
-      <c r="E25" s="24">
-        <f>222*(1.33*0.91)</f>
-        <v>268.68660000000006</v>
-      </c>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="24">
-        <f>815*(1.33*0.91)</f>
-        <v>986.39450000000011</v>
-      </c>
-      <c r="C26" s="24">
-        <f>211*(1.33*0.91)</f>
-        <v>255.37330000000003</v>
-      </c>
-      <c r="D26" s="24">
-        <f>122*(1.33*0.91)</f>
-        <v>147.65660000000003</v>
-      </c>
-      <c r="E26" s="24">
-        <f>93*(1.33*0.91)</f>
-        <v>112.55790000000002</v>
-      </c>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="14">
-        <f>AVERAGE(B25:B26)</f>
-        <v>986.39450000000011</v>
-      </c>
-      <c r="C27" s="14">
-        <f t="shared" ref="C27:E27" si="1">AVERAGE(C25:C26)</f>
-        <v>356.43335000000002</v>
-      </c>
-      <c r="D27" s="14">
-        <f t="shared" si="1"/>
-        <v>234.19305000000003</v>
-      </c>
-      <c r="E27" s="14">
-        <f t="shared" si="1"/>
-        <v>190.62225000000004</v>
-      </c>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="B28" s="29">
-        <f>AVERAGE(B27,B24)</f>
-        <v>613.19725000000005</v>
-      </c>
-      <c r="C28" s="29">
-        <f t="shared" ref="C28:E28" si="2">AVERAGE(C27,C24)</f>
-        <v>298.21667500000001</v>
-      </c>
-      <c r="D28" s="29">
-        <f t="shared" si="2"/>
-        <v>237.09652500000001</v>
-      </c>
-      <c r="E28" s="29">
-        <f t="shared" si="2"/>
-        <v>215.311125</v>
-      </c>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" s="8">
-        <v>1.3</v>
-      </c>
-      <c r="C30" s="8">
-        <v>1.3</v>
-      </c>
-      <c r="D30" s="8">
-        <v>1.3</v>
-      </c>
-      <c r="E30" s="8">
-        <v>1.3</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" s="8">
-        <v>1.8</v>
-      </c>
-      <c r="C31" s="8">
-        <v>1.8</v>
-      </c>
-      <c r="D31" s="8">
-        <v>1.8</v>
-      </c>
-      <c r="E31" s="8">
-        <v>1.8</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="J31" s="6"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" s="8">
-        <f>AVERAGE(B30:B31)</f>
-        <v>1.55</v>
-      </c>
-      <c r="C32" s="8">
-        <f t="shared" ref="C32:E32" si="3">AVERAGE(C30:C31)</f>
-        <v>1.55</v>
-      </c>
-      <c r="D32" s="8">
-        <f t="shared" si="3"/>
-        <v>1.55</v>
-      </c>
-      <c r="E32" s="8">
-        <f t="shared" si="3"/>
-        <v>1.55</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="J32" s="6"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" s="14">
-        <f>B32*947817</f>
-        <v>1469116.35</v>
-      </c>
-      <c r="C33" s="14">
-        <f t="shared" ref="C33:E33" si="4">C32*947817</f>
-        <v>1469116.35</v>
-      </c>
-      <c r="D33" s="14">
-        <f t="shared" si="4"/>
-        <v>1469116.35</v>
-      </c>
-      <c r="E33" s="14">
-        <f t="shared" si="4"/>
-        <v>1469116.35</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="B34" s="8">
-        <v>5.3</v>
-      </c>
-      <c r="C34" s="8">
-        <v>5.3</v>
-      </c>
-      <c r="D34" s="8">
-        <v>5.3</v>
-      </c>
-      <c r="E34" s="8">
-        <v>5.3</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="J34" s="6"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="B35" s="8">
-        <v>8.1</v>
-      </c>
-      <c r="C35" s="8">
-        <v>8.1</v>
-      </c>
-      <c r="D35" s="8">
-        <v>8.1</v>
-      </c>
-      <c r="E35" s="8">
-        <v>8.1</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="J35" s="6"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B36" s="8">
-        <f>AVERAGE(B34:B35)</f>
-        <v>6.6999999999999993</v>
-      </c>
-      <c r="C36" s="8">
-        <f t="shared" ref="C36" si="5">AVERAGE(C34:C35)</f>
-        <v>6.6999999999999993</v>
-      </c>
-      <c r="D36" s="8">
-        <f t="shared" ref="D36" si="6">AVERAGE(D34:D35)</f>
-        <v>6.6999999999999993</v>
-      </c>
-      <c r="E36" s="8">
-        <f t="shared" ref="E36" si="7">AVERAGE(E34:E35)</f>
-        <v>6.6999999999999993</v>
-      </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="J36" s="6"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B37" s="14">
-        <f>B36*947817</f>
-        <v>6350373.8999999994</v>
-      </c>
-      <c r="C37" s="14">
-        <f t="shared" ref="C37:E37" si="8">C36*947817</f>
-        <v>6350373.8999999994</v>
-      </c>
-      <c r="D37" s="14">
-        <f t="shared" si="8"/>
-        <v>6350373.8999999994</v>
-      </c>
-      <c r="E37" s="14">
-        <f t="shared" si="8"/>
-        <v>6350373.8999999994</v>
-      </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="J37" s="6"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="B38" s="14">
-        <f>SUM(B37,B33)</f>
-        <v>7819490.25</v>
-      </c>
-      <c r="C38" s="14">
-        <f t="shared" ref="C38:E38" si="9">SUM(C37,C33)</f>
-        <v>7819490.25</v>
-      </c>
-      <c r="D38" s="14">
-        <f t="shared" si="9"/>
-        <v>7819490.25</v>
-      </c>
-      <c r="E38" s="14">
-        <f t="shared" si="9"/>
-        <v>7819490.25</v>
-      </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="J38" s="6"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="B39" s="14">
-        <v>1535</v>
-      </c>
-      <c r="C39" s="14">
-        <v>1458</v>
-      </c>
-      <c r="D39" s="14">
-        <v>1385</v>
-      </c>
-      <c r="E39" s="14">
-        <v>1316</v>
-      </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="J39" s="6"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B40" s="14">
-        <f>B39*3412</f>
-        <v>5237420</v>
-      </c>
-      <c r="C40" s="14">
-        <f t="shared" ref="C40:E40" si="10">C39*3412</f>
-        <v>4974696</v>
-      </c>
-      <c r="D40" s="14">
-        <f t="shared" si="10"/>
-        <v>4725620</v>
-      </c>
-      <c r="E40" s="14">
-        <f t="shared" si="10"/>
-        <v>4490192</v>
-      </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="J40" s="6"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="B41" s="14">
-        <f>AVERAGE(B40,B38)</f>
-        <v>6528455.125</v>
-      </c>
-      <c r="C41" s="14">
-        <f t="shared" ref="C41:E41" si="11">AVERAGE(C40,C38)</f>
-        <v>6397093.125</v>
-      </c>
-      <c r="D41" s="14">
-        <f t="shared" si="11"/>
-        <v>6272555.125</v>
-      </c>
-      <c r="E41" s="14">
-        <f t="shared" si="11"/>
-        <v>6154841.125</v>
-      </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="J41" s="6"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="J42" s="6"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="J43" s="6"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B44" s="14">
-        <v>0</v>
-      </c>
-      <c r="C44" s="14">
-        <v>0</v>
-      </c>
-      <c r="D44" s="14">
-        <v>0</v>
-      </c>
-      <c r="E44" s="14">
-        <v>400</v>
-      </c>
-      <c r="F44">
-        <v>1500</v>
-      </c>
-      <c r="G44" s="14">
-        <v>30000</v>
-      </c>
-      <c r="J44" s="6"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="B45" s="24">
-        <v>3</v>
-      </c>
-      <c r="C45" s="24">
-        <v>473</v>
-      </c>
-      <c r="D45" s="24">
-        <v>4791</v>
-      </c>
-      <c r="E45" s="24">
-        <v>15356</v>
-      </c>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="J45" s="6"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="B46" s="27">
-        <f>B45*0.5</f>
-        <v>1.5</v>
-      </c>
-      <c r="C46" s="24">
-        <f t="shared" ref="C46:E46" si="12">C45*0.5</f>
-        <v>236.5</v>
-      </c>
-      <c r="D46" s="24">
-        <f t="shared" si="12"/>
-        <v>2395.5</v>
-      </c>
-      <c r="E46" s="24">
-        <f t="shared" si="12"/>
-        <v>7678</v>
-      </c>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="J46" s="6"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B47" s="19">
-        <f>AVERAGE(B45:B46)</f>
-        <v>2.25</v>
-      </c>
-      <c r="C47" s="14">
-        <f t="shared" ref="C47:E47" si="13">AVERAGE(C45:C46)</f>
-        <v>354.75</v>
-      </c>
-      <c r="D47" s="14">
-        <f t="shared" si="13"/>
-        <v>3593.25</v>
-      </c>
-      <c r="E47" s="14">
-        <f t="shared" si="13"/>
-        <v>11517</v>
-      </c>
-      <c r="J47" s="6"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="B48" s="14">
-        <f>AVERAGE(B47,B44)</f>
-        <v>1.125</v>
-      </c>
-      <c r="C48" s="14">
-        <f t="shared" ref="C48:E48" si="14">AVERAGE(C47,C44)</f>
-        <v>177.375</v>
-      </c>
-      <c r="D48" s="14">
-        <f t="shared" si="14"/>
-        <v>1796.625</v>
-      </c>
-      <c r="E48" s="14">
-        <f t="shared" si="14"/>
-        <v>5958.5</v>
-      </c>
-      <c r="J48" s="6"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="21"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="J49" s="6"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>88</v>
-      </c>
-      <c r="C55" s="20">
-        <v>1.6688000000000001</v>
-      </c>
-      <c r="D55" t="s">
-        <v>41</v>
-      </c>
-      <c r="E55">
-        <v>2017</v>
-      </c>
-      <c r="G55" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56">
-        <v>80</v>
-      </c>
-      <c r="D56" t="s">
-        <v>42</v>
-      </c>
-      <c r="E56">
-        <v>2017</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>89</v>
-      </c>
-      <c r="C57" s="10">
-        <f>C55/C56</f>
-        <v>2.086E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="B59" s="32">
-        <f>B48*$C$57</f>
-        <v>2.3467499999999999E-2</v>
-      </c>
-      <c r="C59" s="32">
-        <f t="shared" ref="C59:E59" si="15">C48*$C$57</f>
-        <v>3.7000424999999999</v>
-      </c>
-      <c r="D59" s="32">
-        <f t="shared" si="15"/>
-        <v>37.477597500000002</v>
-      </c>
-      <c r="E59" s="32">
-        <f t="shared" si="15"/>
-        <v>124.29431</v>
-      </c>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{45DD5CF1-C46A-42D6-A7D7-A22A80577B18}"/>
-    <hyperlink ref="G56" r:id="rId2" xr:uid="{89957D1A-BCF1-498F-B397-AE2ACF2DE8B9}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:N2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="12" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
@@ -2813,132 +1749,107 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="14">
-        <v>0</v>
-      </c>
-      <c r="E2" s="14">
-        <f>'Texas Data'!B59*1000000</f>
-        <v>23467.5</v>
-      </c>
-      <c r="F2" s="14">
-        <f>0.9*E2+0.1*O2</f>
-        <v>391125</v>
-      </c>
-      <c r="G2" s="14">
-        <f>0.8*E2+0.2*O2</f>
-        <v>758782.5</v>
-      </c>
-      <c r="H2" s="14">
-        <f>0.7*E2+0.3*O2</f>
-        <v>1126440</v>
-      </c>
-      <c r="I2" s="14">
-        <f>0.6*E2+0.4*O2</f>
-        <v>1494097.5</v>
-      </c>
-      <c r="J2" s="14">
-        <f>0.5*E2+0.5*O2</f>
-        <v>1861755</v>
-      </c>
-      <c r="K2" s="14">
-        <f>0.4*E2+0.6*O2</f>
-        <v>2229412.5</v>
-      </c>
-      <c r="L2" s="14">
-        <f>0.3*E2+0.7*O2</f>
-        <v>2597070</v>
-      </c>
-      <c r="M2" s="14">
-        <f>0.2*E2+0.8*O2</f>
-        <v>2964727.5</v>
-      </c>
-      <c r="N2" s="14">
-        <f>0.1*E2+0.9*O2</f>
-        <v>3332385</v>
-      </c>
-      <c r="O2" s="14">
-        <f>'Texas Data'!C59*1000000</f>
-        <v>3700042.5</v>
-      </c>
-      <c r="P2" s="14">
-        <f>0.9*O2+0.1*Y2</f>
-        <v>7077798</v>
-      </c>
-      <c r="Q2" s="14">
-        <f>0.8*O2+0.2*Y2</f>
-        <v>10455553.5</v>
-      </c>
-      <c r="R2" s="14">
-        <f>0.7*O2+0.3*Y2</f>
-        <v>13833309</v>
-      </c>
-      <c r="S2" s="14">
-        <f>0.6*O2+0.4*Y2</f>
-        <v>17211064.5</v>
-      </c>
-      <c r="T2" s="14">
-        <f>0.5*O2+0.5*Y2</f>
-        <v>20588820</v>
-      </c>
-      <c r="U2" s="14">
-        <f>0.4*O2+0.6*Y2</f>
-        <v>23966575.5</v>
-      </c>
-      <c r="V2" s="14">
-        <f>0.3*O2+0.7*Y2</f>
-        <v>27344331</v>
-      </c>
-      <c r="W2" s="14">
-        <f>0.2*O2+0.8*Y2</f>
-        <v>30722086.5</v>
-      </c>
-      <c r="X2" s="14">
-        <f>0.1*O2+0.9*Y2</f>
-        <v>34099842</v>
-      </c>
-      <c r="Y2" s="14">
-        <f>'Texas Data'!D59*1000000</f>
-        <v>37477597.5</v>
-      </c>
-      <c r="Z2" s="14">
-        <f>0.9*Y2+0.1*AI2</f>
-        <v>46159268.75</v>
-      </c>
-      <c r="AA2" s="14">
-        <f>0.8*Y2+0.2*AI2</f>
-        <v>54840940</v>
-      </c>
-      <c r="AB2" s="14">
-        <f>0.7*Y2+0.3*AI2</f>
-        <v>63522611.25</v>
-      </c>
-      <c r="AC2" s="14">
-        <f>0.6*Y2+0.4*AI2</f>
-        <v>72204282.5</v>
-      </c>
-      <c r="AD2" s="14">
-        <f>0.5*Y2+0.5*AI2</f>
-        <v>80885953.75</v>
-      </c>
-      <c r="AE2" s="14">
-        <f>0.4*Y2+0.6*AI2</f>
-        <v>89567625</v>
-      </c>
-      <c r="AF2" s="14">
-        <f>0.3*Y2+0.7*AI2</f>
-        <v>98249296.25</v>
-      </c>
-      <c r="AG2" s="14">
-        <f>0.2*Y2+0.8*AI2</f>
-        <v>106930967.5</v>
-      </c>
-      <c r="AH2" s="14">
-        <f>0.1*Y2+0.9*AI2</f>
-        <v>115612638.75</v>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <f>TREND(Data!$B$83:$C$83,Data!$B$82:$C$82,AD$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <f>TREND(Data!$B$83:$C$83,Data!$B$82:$C$82,AE$1)</f>
+        <v>17312500</v>
+      </c>
+      <c r="AF2">
+        <f>TREND(Data!$B$83:$C$83,Data!$B$82:$C$82,AF$1)</f>
+        <v>34625000</v>
+      </c>
+      <c r="AG2">
+        <f>TREND(Data!$B$83:$C$83,Data!$B$82:$C$82,AG$1)</f>
+        <v>51937500</v>
+      </c>
+      <c r="AH2">
+        <f>TREND(Data!$B$83:$C$83,Data!$B$82:$C$82,AH$1)</f>
+        <v>69250000</v>
       </c>
       <c r="AI2">
-        <f>'Texas Data'!E59*1000000</f>
-        <v>124294310</v>
+        <f>TREND(Data!$B$83:$C$83,Data!$B$82:$C$82,AI$1)</f>
+        <v>86562500</v>
       </c>
     </row>
   </sheetData>
@@ -2946,16 +1857,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:N2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3075,140 +1984,140 @@
         <v>68</v>
       </c>
       <c r="B2" s="14">
-        <f t="shared" ref="B2:C2" si="0">C2</f>
-        <v>6528455.125</v>
+        <f>Data!B16*Data!B92</f>
+        <v>1704754.8</v>
       </c>
       <c r="C2" s="14">
-        <f t="shared" si="0"/>
-        <v>6528455.125</v>
+        <f>$B2</f>
+        <v>1704754.8</v>
       </c>
       <c r="D2" s="14">
-        <f>E2</f>
-        <v>6528455.125</v>
+        <f t="shared" ref="D2:AI10" si="0">$B2</f>
+        <v>1704754.8</v>
       </c>
       <c r="E2" s="14">
-        <f>'Texas Data'!B41</f>
-        <v>6528455.125</v>
+        <f t="shared" si="0"/>
+        <v>1704754.8</v>
       </c>
       <c r="F2" s="14">
-        <f>0.9*E2+0.1*O2</f>
-        <v>6515318.9249999998</v>
+        <f t="shared" si="0"/>
+        <v>1704754.8</v>
       </c>
       <c r="G2" s="14">
-        <f>0.8*E2+0.2*O2</f>
-        <v>6502182.7250000006</v>
+        <f t="shared" si="0"/>
+        <v>1704754.8</v>
       </c>
       <c r="H2" s="14">
-        <f>0.7*E2+0.3*O2</f>
-        <v>6489046.5249999994</v>
+        <f t="shared" si="0"/>
+        <v>1704754.8</v>
       </c>
       <c r="I2" s="14">
-        <f>0.6*E2+0.4*O2</f>
-        <v>6475910.3249999993</v>
+        <f t="shared" si="0"/>
+        <v>1704754.8</v>
       </c>
       <c r="J2" s="14">
-        <f>0.5*E2+0.5*O2</f>
-        <v>6462774.125</v>
+        <f t="shared" si="0"/>
+        <v>1704754.8</v>
       </c>
       <c r="K2" s="14">
-        <f>0.4*E2+0.6*O2</f>
-        <v>6449637.9250000007</v>
+        <f t="shared" si="0"/>
+        <v>1704754.8</v>
       </c>
       <c r="L2" s="14">
-        <f>0.3*E2+0.7*O2</f>
-        <v>6436501.7249999996</v>
+        <f t="shared" si="0"/>
+        <v>1704754.8</v>
       </c>
       <c r="M2" s="14">
-        <f>0.2*E2+0.8*O2</f>
-        <v>6423365.5250000004</v>
+        <f t="shared" si="0"/>
+        <v>1704754.8</v>
       </c>
       <c r="N2" s="14">
-        <f>0.1*E2+0.9*O2</f>
-        <v>6410229.3250000002</v>
+        <f t="shared" si="0"/>
+        <v>1704754.8</v>
       </c>
       <c r="O2" s="14">
-        <f>'Texas Data'!C41</f>
-        <v>6397093.125</v>
+        <f t="shared" si="0"/>
+        <v>1704754.8</v>
       </c>
       <c r="P2" s="14">
-        <f>0.9*O2+0.1*Y2</f>
-        <v>6384639.3250000002</v>
+        <f t="shared" si="0"/>
+        <v>1704754.8</v>
       </c>
       <c r="Q2" s="14">
-        <f>0.8*O2+0.2*Y2</f>
-        <v>6372185.5250000004</v>
+        <f t="shared" si="0"/>
+        <v>1704754.8</v>
       </c>
       <c r="R2" s="14">
-        <f>0.7*O2+0.3*Y2</f>
-        <v>6359731.7249999996</v>
+        <f t="shared" si="0"/>
+        <v>1704754.8</v>
       </c>
       <c r="S2" s="14">
-        <f>0.6*O2+0.4*Y2</f>
-        <v>6347277.9250000007</v>
+        <f t="shared" si="0"/>
+        <v>1704754.8</v>
       </c>
       <c r="T2" s="14">
-        <f>0.5*O2+0.5*Y2</f>
-        <v>6334824.125</v>
+        <f t="shared" si="0"/>
+        <v>1704754.8</v>
       </c>
       <c r="U2" s="14">
-        <f>0.4*O2+0.6*Y2</f>
-        <v>6322370.3249999993</v>
+        <f t="shared" si="0"/>
+        <v>1704754.8</v>
       </c>
       <c r="V2" s="14">
-        <f>0.3*O2+0.7*Y2</f>
-        <v>6309916.5249999994</v>
+        <f t="shared" si="0"/>
+        <v>1704754.8</v>
       </c>
       <c r="W2" s="14">
-        <f>0.2*O2+0.8*Y2</f>
-        <v>6297462.7250000006</v>
+        <f t="shared" si="0"/>
+        <v>1704754.8</v>
       </c>
       <c r="X2" s="14">
-        <f>0.1*O2+0.9*Y2</f>
-        <v>6285008.9249999998</v>
+        <f t="shared" si="0"/>
+        <v>1704754.8</v>
       </c>
       <c r="Y2" s="14">
-        <f>'Texas Data'!D41</f>
-        <v>6272555.125</v>
+        <f t="shared" si="0"/>
+        <v>1704754.8</v>
       </c>
       <c r="Z2" s="14">
-        <f>0.9*Y2+0.1*AI2</f>
-        <v>6260783.7249999996</v>
+        <f t="shared" si="0"/>
+        <v>1704754.8</v>
       </c>
       <c r="AA2" s="14">
-        <f>0.8*Y2+0.2*AI2</f>
-        <v>6249012.3250000011</v>
+        <f t="shared" si="0"/>
+        <v>1704754.8</v>
       </c>
       <c r="AB2" s="14">
-        <f>0.7*Y2+0.3*AI2</f>
-        <v>6237240.9249999989</v>
+        <f t="shared" si="0"/>
+        <v>1704754.8</v>
       </c>
       <c r="AC2" s="14">
-        <f>0.6*Y2+0.4*AI2</f>
-        <v>6225469.5250000004</v>
+        <f t="shared" si="0"/>
+        <v>1704754.8</v>
       </c>
       <c r="AD2" s="14">
-        <f>0.5*Y2+0.5*AI2</f>
-        <v>6213698.125</v>
+        <f t="shared" si="0"/>
+        <v>1704754.8</v>
       </c>
       <c r="AE2" s="14">
-        <f>0.4*Y2+0.6*AI2</f>
-        <v>6201926.7249999996</v>
+        <f t="shared" si="0"/>
+        <v>1704754.8</v>
       </c>
       <c r="AF2" s="14">
-        <f>0.3*Y2+0.7*AI2</f>
-        <v>6190155.3249999993</v>
+        <f t="shared" si="0"/>
+        <v>1704754.8</v>
       </c>
       <c r="AG2" s="14">
-        <f>0.2*Y2+0.8*AI2</f>
-        <v>6178383.9250000007</v>
+        <f t="shared" si="0"/>
+        <v>1704754.8</v>
       </c>
       <c r="AH2" s="14">
-        <f>0.1*Y2+0.9*AI2</f>
-        <v>6166612.5250000004</v>
+        <f t="shared" si="0"/>
+        <v>1704754.8</v>
       </c>
       <c r="AI2" s="14">
-        <f>'Texas Data'!E41</f>
-        <v>6154841.125</v>
+        <f t="shared" si="0"/>
+        <v>1704754.8</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
@@ -3283,71 +2192,71 @@
         <v>0</v>
       </c>
       <c r="S3" s="14">
-        <f t="shared" ref="D2:AI10" si="2">$B3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T3" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U3" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V3" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W3" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X3" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y3" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z3" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA3" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB3" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC3" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD3" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE3" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF3" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG3" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH3" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI3" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3356,139 +2265,140 @@
         <v>70</v>
       </c>
       <c r="B4" s="14">
-        <v>0</v>
+        <f>Data!B22*Data!B92</f>
+        <v>7671396.5999999996</v>
       </c>
       <c r="C4" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7671396.5999999996</v>
       </c>
       <c r="D4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7671396.5999999996</v>
       </c>
       <c r="E4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7671396.5999999996</v>
       </c>
       <c r="F4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7671396.5999999996</v>
       </c>
       <c r="G4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7671396.5999999996</v>
       </c>
       <c r="H4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7671396.5999999996</v>
       </c>
       <c r="I4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7671396.5999999996</v>
       </c>
       <c r="J4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7671396.5999999996</v>
       </c>
       <c r="K4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7671396.5999999996</v>
       </c>
       <c r="L4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7671396.5999999996</v>
       </c>
       <c r="M4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7671396.5999999996</v>
       </c>
       <c r="N4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7671396.5999999996</v>
       </c>
       <c r="O4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7671396.5999999996</v>
       </c>
       <c r="P4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7671396.5999999996</v>
       </c>
       <c r="Q4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7671396.5999999996</v>
       </c>
       <c r="R4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7671396.5999999996</v>
       </c>
       <c r="S4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7671396.5999999996</v>
       </c>
       <c r="T4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7671396.5999999996</v>
       </c>
       <c r="U4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7671396.5999999996</v>
       </c>
       <c r="V4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7671396.5999999996</v>
       </c>
       <c r="W4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7671396.5999999996</v>
       </c>
       <c r="X4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7671396.5999999996</v>
       </c>
       <c r="Y4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7671396.5999999996</v>
       </c>
       <c r="Z4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7671396.5999999996</v>
       </c>
       <c r="AA4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7671396.5999999996</v>
       </c>
       <c r="AB4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7671396.5999999996</v>
       </c>
       <c r="AC4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7671396.5999999996</v>
       </c>
       <c r="AD4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7671396.5999999996</v>
       </c>
       <c r="AE4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7671396.5999999996</v>
       </c>
       <c r="AF4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7671396.5999999996</v>
       </c>
       <c r="AG4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7671396.5999999996</v>
       </c>
       <c r="AH4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7671396.5999999996</v>
       </c>
       <c r="AI4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7671396.5999999996</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
@@ -3503,131 +2413,131 @@
         <v>0</v>
       </c>
       <c r="D5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3643,131 +2553,131 @@
         <v>0</v>
       </c>
       <c r="D6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3783,131 +2693,131 @@
         <v>0</v>
       </c>
       <c r="D7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3923,131 +2833,131 @@
         <v>0</v>
       </c>
       <c r="D8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4063,131 +2973,131 @@
         <v>0</v>
       </c>
       <c r="D9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4203,131 +3113,131 @@
         <v>0</v>
       </c>
       <c r="D10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R10" s="14">
-        <f t="shared" ref="D10:AI11" si="3">$B10</f>
+        <f t="shared" ref="D10:AI11" si="2">$B10</f>
         <v>0</v>
       </c>
       <c r="S10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4343,131 +3253,131 @@
         <v>0</v>
       </c>
       <c r="D11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4476,16 +3386,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L33:L34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4605,140 +3513,140 @@
         <v>58</v>
       </c>
       <c r="B2" s="14">
-        <f t="shared" ref="B2:C2" si="0">(C2-D2)+C2</f>
-        <v>707.69142249999993</v>
+        <f>Data!B10</f>
+        <v>300</v>
       </c>
       <c r="C2" s="14">
-        <f t="shared" si="0"/>
-        <v>676.19336499999997</v>
+        <f>$B2</f>
+        <v>300</v>
       </c>
       <c r="D2" s="14">
-        <f>(E2-F2)+E2</f>
-        <v>644.69530750000001</v>
+        <f t="shared" ref="D2:AI2" si="0">$B2</f>
+        <v>300</v>
       </c>
       <c r="E2" s="14">
-        <f>'Texas Data'!B28</f>
-        <v>613.19725000000005</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="F2" s="14">
-        <f>0.9*E2+0.1*O2</f>
-        <v>581.69919250000009</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="G2" s="14">
-        <f>0.8*E2+0.2*O2</f>
-        <v>550.20113500000002</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="H2" s="14">
-        <f>0.7*E2+0.3*O2</f>
-        <v>518.70307750000006</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="I2" s="14">
-        <f>0.6*E2+0.4*O2</f>
-        <v>487.20502000000005</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="J2" s="14">
-        <f>0.5*E2+0.5*O2</f>
-        <v>455.70696250000003</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="K2" s="14">
-        <f>0.4*E2+0.6*O2</f>
-        <v>424.20890500000002</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="L2" s="14">
-        <f>0.3*E2+0.7*O2</f>
-        <v>392.7108475</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="M2" s="14">
-        <f>0.2*E2+0.8*O2</f>
-        <v>361.21279000000004</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="N2" s="14">
-        <f>0.1*E2+0.9*O2</f>
-        <v>329.71473250000003</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="O2" s="14">
-        <f>'Texas Data'!C28</f>
-        <v>298.21667500000001</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="P2" s="14">
-        <f>0.9*O2+0.1*Y2</f>
-        <v>292.10466000000002</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="Q2" s="14">
-        <f>0.8*O2+0.2*Y2</f>
-        <v>285.99264500000004</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="R2" s="14">
-        <f>0.7*O2+0.3*Y2</f>
-        <v>279.88063</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="S2" s="14">
-        <f>0.6*O2+0.4*Y2</f>
-        <v>273.76861500000001</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="T2" s="14">
-        <f>0.5*O2+0.5*Y2</f>
-        <v>267.65660000000003</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="U2" s="14">
-        <f>0.4*O2+0.6*Y2</f>
-        <v>261.54458499999998</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="V2" s="14">
-        <f>0.3*O2+0.7*Y2</f>
-        <v>255.43257</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="W2" s="14">
-        <f>0.2*O2+0.8*Y2</f>
-        <v>249.32055500000004</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="X2" s="14">
-        <f>0.1*O2+0.9*Y2</f>
-        <v>243.20854000000003</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="Y2" s="14">
-        <f>'Texas Data'!D28</f>
-        <v>237.09652500000001</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="Z2" s="14">
-        <f>0.9*Y2+0.1*AI2</f>
-        <v>234.91798500000002</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="AA2" s="14">
-        <f>0.8*Y2+0.2*AI2</f>
-        <v>232.73944500000005</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="AB2" s="14">
-        <f>0.7*Y2+0.3*AI2</f>
-        <v>230.56090499999999</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="AC2" s="14">
-        <f>0.6*Y2+0.4*AI2</f>
-        <v>228.38236499999999</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="AD2" s="14">
-        <f>0.5*Y2+0.5*AI2</f>
-        <v>226.20382499999999</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="AE2" s="14">
-        <f>0.4*Y2+0.6*AI2</f>
-        <v>224.02528500000003</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="AF2" s="14">
-        <f>0.3*Y2+0.7*AI2</f>
-        <v>221.846745</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="AG2" s="14">
-        <f>0.2*Y2+0.8*AI2</f>
-        <v>219.66820500000003</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="AH2" s="14">
-        <f>0.1*Y2+0.9*AI2</f>
-        <v>217.489665</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="AI2" s="14">
-        <f>'Texas Data'!E28</f>
-        <v>215.311125</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/geoeng/DACD/Direct Air Capture Data.xlsx
+++ b/InputData/geoeng/DACD/Direct Air Capture Data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.1.2\InputData\geoeng\DACD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-texas\InputData\geoeng\DACD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DB89F9-AA00-47A5-A09D-D6F9F4A41987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5445" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="116">
   <si>
     <t>Sources:</t>
   </si>
@@ -316,9 +315,6 @@
     <t>https://www.sciencedirect.com/science/article/pii/S0959652619307772</t>
   </si>
   <si>
-    <t>Here's an alternative source to consider (by Fasihi)</t>
-  </si>
-  <si>
     <t>this source was published in the same month as the one EPS cites (by Realmonte), but it is more bullish about DAC costs and adoption</t>
   </si>
   <si>
@@ -328,9 +324,6 @@
     <t>the Fasihi study assumes a bit more DAC adoption and costs that get lower over time.</t>
   </si>
   <si>
-    <t xml:space="preserve">Realmonte Adoption (DAC1 Mtco2/yr) </t>
-  </si>
-  <si>
     <t>These studies both look at technologies that "ues water solutions containing hydroxide sorbents", which Realmonte calls "DAC1" and Fasihi calls "HT" (high temperature). These are the technologies described below.</t>
   </si>
   <si>
@@ -349,111 +342,60 @@
     <t>larger scale, uses water solutions containing hydroxide sorbents, requires high input heat which usually means burning fuels like natural gas</t>
   </si>
   <si>
-    <t xml:space="preserve">EPS only uses the Realmonte Study, but we will average the results of both studies to get something more averaged out. It turns out that Realmonte seems a bit conservative while Fasihi may be a bit optimistic. Given the large </t>
-  </si>
-  <si>
-    <t xml:space="preserve">uncertainty in DACs, it seems prudent to consider both and take their average. </t>
-  </si>
-  <si>
     <t>Note that Fasihi uses 2018 Euros using a constant 1.33 USD conversion rate. So, to convert from thes 2018 Euros to 2012 USD, we multiply by (1.33*0.91)</t>
   </si>
   <si>
-    <t>Fasihi (Table 6) Cap Cost $/ton (Base Case)</t>
-  </si>
-  <si>
-    <t>Fasihi (Table 6) Cap Cost $/ton (Conservative)</t>
-  </si>
-  <si>
-    <t>Fasihi (Table 6) Cap Cost $/ton (Average)</t>
-  </si>
-  <si>
-    <t>Adoption Rate / Global DACs Demand</t>
-  </si>
-  <si>
-    <t>Fasihi (Table 5) Adoption (Mtco2/yr) (Base Case)</t>
-  </si>
-  <si>
     <t>Fasihi (Table 5) Adoption (Mtco2/yr) (Conservative)</t>
   </si>
   <si>
-    <t>Fasihi (Table 5) Adoption (Mtco2/yr) (Average)</t>
-  </si>
-  <si>
-    <t>Note that Fasihi has "conservative" and "base case" scenarios and Realmonte often gives "high" and "low" numbers. We take the average in both cases.</t>
-  </si>
-  <si>
-    <t>Realmonte Cap Cost $/ton (High case)</t>
-  </si>
-  <si>
-    <t>Realmonte Cap Cost $/ton (Low case)</t>
-  </si>
-  <si>
-    <t>Realmonte Cap Cost $/ton (Average)</t>
-  </si>
-  <si>
-    <t>Realmonte Electricity GJ/ton (Low case)</t>
-  </si>
-  <si>
-    <t>Realmonte Electricity GJ/ton (High case)</t>
-  </si>
-  <si>
-    <t>Realmonte Electricity GJ/ton (Average)</t>
-  </si>
-  <si>
-    <t>Realmonte Heat GJ/ton (Low case)</t>
-  </si>
-  <si>
-    <t>Realmonte Heat GJ/ton (High case)</t>
-  </si>
-  <si>
-    <t>Realmonte Heat GJ/ton (Average)</t>
-  </si>
-  <si>
     <t>Fasihi also provides a good argument that DAC technology calculations should focus on electrification. That is, when gas or hydrogen is used for the input heat, the sustainability or energy intensity become unattractive.</t>
   </si>
   <si>
-    <t>So we will convert Realmonte's numbers, which assume nutural gas as the heat input, into electricity only.</t>
-  </si>
-  <si>
-    <t>Realmonte Electricity btu/ton (Average)</t>
-  </si>
-  <si>
-    <t>Realmonte Heat btu/ton (Average)</t>
-  </si>
-  <si>
-    <t>Realmonte Total btu/ton (Average)</t>
-  </si>
-  <si>
     <t>Fasihi (Table 7) Energy kWh/ton</t>
   </si>
   <si>
     <t>Fasihi (Table 7) Energy btu/ton</t>
   </si>
   <si>
-    <t>Average btu/ton</t>
-  </si>
-  <si>
-    <t>Average $/ton</t>
-  </si>
-  <si>
-    <t>Average Mt/year</t>
-  </si>
-  <si>
     <t>DAC1/HT: can use natural gas for heat, but we assume it will be electrified</t>
   </si>
   <si>
     <t>Texas Average Mt/year</t>
+  </si>
+  <si>
+    <t>Here's an alternative source (by Fasihi) which is also used by the WISdom model.</t>
+  </si>
+  <si>
+    <t>Both WISdom and EPS assume that DACs capital cost and energy efficiency remain constant over time. We will do the same.</t>
+  </si>
+  <si>
+    <t>So, we will take the 2020 numbers for the studies and assume that they are constant through 2050.</t>
+  </si>
+  <si>
+    <t>We will assum that DACS do not use natural gas for heat, but that they are completely electrified. Based on that assumption, we will use the Fasihi study because it makes the same assumption (while Realmonte uses gas for DACs heat).</t>
+  </si>
+  <si>
+    <t>Note that Fasihi has "conservative" and "base case" scenarios. Given the uncertainty around DACs as a future tech, we will use the conservative numbers.</t>
+  </si>
+  <si>
+    <t>Constant $/ton for EPS model</t>
+  </si>
+  <si>
+    <t>Fasihi (Table 6) Cap Cost 2012$/ton (Conservative)</t>
+  </si>
+  <si>
+    <t>Constant btu/ton for EPS model</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,12 +456,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -567,7 +503,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -591,30 +527,25 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1001,35 +932,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="47.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.1328125" customWidth="1"/>
+    <col min="2" max="2" width="47.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1037,105 +968,105 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="7">
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B9" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1143,48 +1074,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="8" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.265625" customWidth="1"/>
+    <col min="2" max="8" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
         <v>82</v>
       </c>
@@ -1195,7 +1126,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1206,7 +1137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1217,7 +1148,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1228,7 +1159,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1239,12 +1170,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1255,7 +1186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -1266,7 +1197,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1277,17 +1208,17 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1298,7 +1229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1309,7 +1240,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1320,39 +1251,39 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F27" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
         <v>44</v>
       </c>
@@ -1364,27 +1295,27 @@
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B57">
         <v>2045</v>
       </c>
@@ -1407,7 +1338,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>30</v>
       </c>
@@ -1433,7 +1364,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>31</v>
       </c>
@@ -1459,7 +1390,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>32</v>
       </c>
@@ -1467,7 +1398,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B63">
         <v>2045</v>
       </c>
@@ -1490,7 +1421,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -1523,7 +1454,7 @@
         <v>27.071428571428573</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>34</v>
       </c>
@@ -1556,27 +1487,27 @@
         <v>2.8571428571428568</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -1590,7 +1521,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>40</v>
       </c>
@@ -1604,7 +1535,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>43</v>
       </c>
@@ -1613,7 +1544,7 @@
         <v>0.24237500000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
         <v>45</v>
       </c>
@@ -1625,7 +1556,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B77">
         <v>2045</v>
       </c>
@@ -1648,7 +1579,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>33</v>
       </c>
@@ -1681,7 +1612,7 @@
         <v>6.5614375000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>34</v>
       </c>
@@ -1714,12 +1645,12 @@
         <v>0.69249999999999989</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B82">
         <v>2045</v>
       </c>
@@ -1742,7 +1673,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>47</v>
       </c>
@@ -1775,7 +1706,7 @@
         <v>6561437500</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>48</v>
       </c>
@@ -1808,32 +1739,32 @@
         <v>692499999.99999988</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>55</v>
       </c>
@@ -1841,7 +1772,7 @@
         <v>947086</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>81</v>
       </c>
@@ -1857,818 +1788,383 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C686EB8-A5A6-4682-9510-E2AB00CB780B}">
-  <dimension ref="A1:J59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:E41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" customWidth="1"/>
-    <col min="2" max="8" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="46.265625" customWidth="1"/>
+    <col min="2" max="8" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" s="20" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
         <v>99</v>
       </c>
-      <c r="B8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="4"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>124</v>
-      </c>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" s="4"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B18" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>133</v>
-      </c>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B19" s="1"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20" s="4"/>
+      <c r="B20">
+        <v>2020</v>
+      </c>
+      <c r="C20">
+        <v>2030</v>
+      </c>
+      <c r="D20">
+        <v>2040</v>
+      </c>
+      <c r="E20">
+        <v>2050</v>
+      </c>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21">
-        <v>2020</v>
-      </c>
-      <c r="C21">
-        <v>2030</v>
-      </c>
-      <c r="D21">
-        <v>2040</v>
-      </c>
-      <c r="E21">
-        <v>2050</v>
-      </c>
-      <c r="F21">
-        <v>2060</v>
-      </c>
-      <c r="G21">
-        <v>2100</v>
-      </c>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22" s="26">
-        <v>180</v>
-      </c>
-      <c r="C22" s="26">
-        <v>180</v>
-      </c>
-      <c r="D22" s="26">
-        <v>180</v>
-      </c>
-      <c r="E22" s="26">
-        <v>180</v>
-      </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26">
-        <v>100</v>
-      </c>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="26">
-        <v>300</v>
-      </c>
-      <c r="C23" s="26">
-        <v>300</v>
-      </c>
-      <c r="D23" s="26">
-        <v>300</v>
-      </c>
-      <c r="E23" s="26">
-        <v>300</v>
-      </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26">
-        <v>100</v>
-      </c>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24">
-        <f>AVERAGE(B22:B23)</f>
-        <v>240</v>
-      </c>
-      <c r="C24">
-        <f t="shared" ref="C24:G24" si="0">AVERAGE(C22:C23)</f>
-        <v>240</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="24">
+      <c r="B21" s="22">
         <f>815*(1.33*0.91)</f>
         <v>986.39450000000011</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C21" s="22">
         <f>378*(1.33*0.91)</f>
         <v>457.49340000000007</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D21" s="22">
         <f>265*(1.33*0.91)</f>
         <v>320.72950000000003</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E21" s="22">
         <f>222*(1.33*0.91)</f>
         <v>268.68660000000006</v>
       </c>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A22" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="26">
+        <f>B21</f>
+        <v>986.39450000000011</v>
+      </c>
+      <c r="C22" s="26">
+        <f>B21</f>
+        <v>986.39450000000011</v>
+      </c>
+      <c r="D22" s="26">
+        <f>B21</f>
+        <v>986.39450000000011</v>
+      </c>
+      <c r="E22" s="26">
+        <f>B21</f>
+        <v>986.39450000000011</v>
+      </c>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A24" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="14">
+        <v>1535</v>
+      </c>
+      <c r="C24" s="14">
+        <v>1458</v>
+      </c>
+      <c r="D24" s="14">
+        <v>1385</v>
+      </c>
+      <c r="E24" s="14">
+        <v>1316</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A25" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="14">
+        <f>B24*3412</f>
+        <v>5237420</v>
+      </c>
+      <c r="C25" s="14">
+        <f>C24*3412</f>
+        <v>4974696</v>
+      </c>
+      <c r="D25" s="14">
+        <f>D24*3412</f>
+        <v>4725620</v>
+      </c>
+      <c r="E25" s="14">
+        <f>E24*3412</f>
+        <v>4490192</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A26" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="14">
+        <f>B25</f>
+        <v>5237420</v>
+      </c>
+      <c r="C26" s="14">
+        <f>B25</f>
+        <v>5237420</v>
+      </c>
+      <c r="D26" s="14">
+        <f>B25</f>
+        <v>5237420</v>
+      </c>
+      <c r="E26" s="14">
+        <f>B25</f>
+        <v>5237420</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A27" s="25"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A28" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="C28" s="22">
+        <v>236.5</v>
+      </c>
+      <c r="D28" s="22">
+        <v>2395.5</v>
+      </c>
+      <c r="E28" s="22">
+        <v>7678</v>
+      </c>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A29" s="20"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B30" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="19">
+        <v>1.6688000000000001</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35">
+        <v>2017</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>80</v>
+      </c>
+      <c r="D36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36">
+        <v>2017</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="10">
+        <f>C35/C36</f>
+        <v>2.086E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="24">
-        <f>815*(1.33*0.91)</f>
-        <v>986.39450000000011</v>
-      </c>
-      <c r="C26" s="24">
-        <f>211*(1.33*0.91)</f>
-        <v>255.37330000000003</v>
-      </c>
-      <c r="D26" s="24">
-        <f>122*(1.33*0.91)</f>
-        <v>147.65660000000003</v>
-      </c>
-      <c r="E26" s="24">
-        <f>93*(1.33*0.91)</f>
-        <v>112.55790000000002</v>
-      </c>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="14">
-        <f>AVERAGE(B25:B26)</f>
-        <v>986.39450000000011</v>
-      </c>
-      <c r="C27" s="14">
-        <f t="shared" ref="C27:E27" si="1">AVERAGE(C25:C26)</f>
-        <v>356.43335000000002</v>
-      </c>
-      <c r="D27" s="14">
-        <f t="shared" si="1"/>
-        <v>234.19305000000003</v>
-      </c>
-      <c r="E27" s="14">
-        <f t="shared" si="1"/>
-        <v>190.62225000000004</v>
-      </c>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="B28" s="29">
-        <f>AVERAGE(B27,B24)</f>
-        <v>613.19725000000005</v>
-      </c>
-      <c r="C28" s="29">
-        <f t="shared" ref="C28:E28" si="2">AVERAGE(C27,C24)</f>
-        <v>298.21667500000001</v>
-      </c>
-      <c r="D28" s="29">
-        <f t="shared" si="2"/>
-        <v>237.09652500000001</v>
-      </c>
-      <c r="E28" s="29">
-        <f t="shared" si="2"/>
-        <v>215.311125</v>
-      </c>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" s="8">
-        <v>1.3</v>
-      </c>
-      <c r="C30" s="8">
-        <v>1.3</v>
-      </c>
-      <c r="D30" s="8">
-        <v>1.3</v>
-      </c>
-      <c r="E30" s="8">
-        <v>1.3</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" s="8">
-        <v>1.8</v>
-      </c>
-      <c r="C31" s="8">
-        <v>1.8</v>
-      </c>
-      <c r="D31" s="8">
-        <v>1.8</v>
-      </c>
-      <c r="E31" s="8">
-        <v>1.8</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="J31" s="6"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" s="8">
-        <f>AVERAGE(B30:B31)</f>
-        <v>1.55</v>
-      </c>
-      <c r="C32" s="8">
-        <f t="shared" ref="C32:E32" si="3">AVERAGE(C30:C31)</f>
-        <v>1.55</v>
-      </c>
-      <c r="D32" s="8">
-        <f t="shared" si="3"/>
-        <v>1.55</v>
-      </c>
-      <c r="E32" s="8">
-        <f t="shared" si="3"/>
-        <v>1.55</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="J32" s="6"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" s="14">
-        <f>B32*947817</f>
-        <v>1469116.35</v>
-      </c>
-      <c r="C33" s="14">
-        <f t="shared" ref="C33:E33" si="4">C32*947817</f>
-        <v>1469116.35</v>
-      </c>
-      <c r="D33" s="14">
-        <f t="shared" si="4"/>
-        <v>1469116.35</v>
-      </c>
-      <c r="E33" s="14">
-        <f t="shared" si="4"/>
-        <v>1469116.35</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="B34" s="8">
-        <v>5.3</v>
-      </c>
-      <c r="C34" s="8">
-        <v>5.3</v>
-      </c>
-      <c r="D34" s="8">
-        <v>5.3</v>
-      </c>
-      <c r="E34" s="8">
-        <v>5.3</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="J34" s="6"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="B35" s="8">
-        <v>8.1</v>
-      </c>
-      <c r="C35" s="8">
-        <v>8.1</v>
-      </c>
-      <c r="D35" s="8">
-        <v>8.1</v>
-      </c>
-      <c r="E35" s="8">
-        <v>8.1</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="J35" s="6"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B36" s="8">
-        <f>AVERAGE(B34:B35)</f>
-        <v>6.6999999999999993</v>
-      </c>
-      <c r="C36" s="8">
-        <f t="shared" ref="C36" si="5">AVERAGE(C34:C35)</f>
-        <v>6.6999999999999993</v>
-      </c>
-      <c r="D36" s="8">
-        <f t="shared" ref="D36" si="6">AVERAGE(D34:D35)</f>
-        <v>6.6999999999999993</v>
-      </c>
-      <c r="E36" s="8">
-        <f t="shared" ref="E36" si="7">AVERAGE(E34:E35)</f>
-        <v>6.6999999999999993</v>
-      </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="J36" s="6"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B37" s="14">
-        <f>B36*947817</f>
-        <v>6350373.8999999994</v>
-      </c>
-      <c r="C37" s="14">
-        <f t="shared" ref="C37:E37" si="8">C36*947817</f>
-        <v>6350373.8999999994</v>
-      </c>
-      <c r="D37" s="14">
-        <f t="shared" si="8"/>
-        <v>6350373.8999999994</v>
-      </c>
-      <c r="E37" s="14">
-        <f t="shared" si="8"/>
-        <v>6350373.8999999994</v>
-      </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="J37" s="6"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="B38" s="14">
-        <f>SUM(B37,B33)</f>
-        <v>7819490.25</v>
-      </c>
-      <c r="C38" s="14">
-        <f t="shared" ref="C38:E38" si="9">SUM(C37,C33)</f>
-        <v>7819490.25</v>
-      </c>
-      <c r="D38" s="14">
-        <f t="shared" si="9"/>
-        <v>7819490.25</v>
-      </c>
-      <c r="E38" s="14">
-        <f t="shared" si="9"/>
-        <v>7819490.25</v>
-      </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="J38" s="6"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="B39" s="14">
-        <v>1535</v>
-      </c>
-      <c r="C39" s="14">
-        <v>1458</v>
-      </c>
-      <c r="D39" s="14">
-        <v>1385</v>
-      </c>
-      <c r="E39" s="14">
-        <v>1316</v>
-      </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="J39" s="6"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B40" s="14">
-        <f>B39*3412</f>
-        <v>5237420</v>
-      </c>
-      <c r="C40" s="14">
-        <f t="shared" ref="C40:E40" si="10">C39*3412</f>
-        <v>4974696</v>
-      </c>
-      <c r="D40" s="14">
-        <f t="shared" si="10"/>
-        <v>4725620</v>
-      </c>
-      <c r="E40" s="14">
-        <f t="shared" si="10"/>
-        <v>4490192</v>
-      </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="J40" s="6"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="B41" s="14">
-        <f>AVERAGE(B40,B38)</f>
-        <v>6528455.125</v>
-      </c>
-      <c r="C41" s="14">
-        <f t="shared" ref="C41:E41" si="11">AVERAGE(C40,C38)</f>
-        <v>6397093.125</v>
-      </c>
-      <c r="D41" s="14">
-        <f t="shared" si="11"/>
-        <v>6272555.125</v>
-      </c>
-      <c r="E41" s="14">
-        <f t="shared" si="11"/>
-        <v>6154841.125</v>
-      </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="J41" s="6"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="J42" s="6"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="J43" s="6"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B44" s="14">
-        <v>0</v>
-      </c>
-      <c r="C44" s="14">
-        <v>0</v>
-      </c>
-      <c r="D44" s="14">
-        <v>0</v>
-      </c>
-      <c r="E44" s="14">
-        <v>400</v>
-      </c>
-      <c r="F44">
-        <v>1500</v>
-      </c>
-      <c r="G44" s="14">
-        <v>30000</v>
-      </c>
-      <c r="J44" s="6"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="B45" s="24">
-        <v>3</v>
-      </c>
-      <c r="C45" s="24">
-        <v>473</v>
-      </c>
-      <c r="D45" s="24">
-        <v>4791</v>
-      </c>
-      <c r="E45" s="24">
-        <v>15356</v>
-      </c>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="J45" s="6"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="B46" s="27">
-        <f>B45*0.5</f>
-        <v>1.5</v>
-      </c>
-      <c r="C46" s="24">
-        <f t="shared" ref="C46:E46" si="12">C45*0.5</f>
-        <v>236.5</v>
-      </c>
-      <c r="D46" s="24">
-        <f t="shared" si="12"/>
-        <v>2395.5</v>
-      </c>
-      <c r="E46" s="24">
-        <f t="shared" si="12"/>
-        <v>7678</v>
-      </c>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="J46" s="6"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B47" s="19">
-        <f>AVERAGE(B45:B46)</f>
-        <v>2.25</v>
-      </c>
-      <c r="C47" s="14">
-        <f t="shared" ref="C47:E47" si="13">AVERAGE(C45:C46)</f>
-        <v>354.75</v>
-      </c>
-      <c r="D47" s="14">
-        <f t="shared" si="13"/>
-        <v>3593.25</v>
-      </c>
-      <c r="E47" s="14">
-        <f t="shared" si="13"/>
-        <v>11517</v>
-      </c>
-      <c r="J47" s="6"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="B48" s="14">
-        <f>AVERAGE(B47,B44)</f>
-        <v>1.125</v>
-      </c>
-      <c r="C48" s="14">
-        <f t="shared" ref="C48:E48" si="14">AVERAGE(C47,C44)</f>
-        <v>177.375</v>
-      </c>
-      <c r="D48" s="14">
-        <f t="shared" si="14"/>
-        <v>1796.625</v>
-      </c>
-      <c r="E48" s="14">
-        <f t="shared" si="14"/>
-        <v>5958.5</v>
-      </c>
-      <c r="J48" s="6"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="21"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="J49" s="6"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>88</v>
-      </c>
-      <c r="C55" s="20">
-        <v>1.6688000000000001</v>
-      </c>
-      <c r="D55" t="s">
-        <v>41</v>
-      </c>
-      <c r="E55">
-        <v>2017</v>
-      </c>
-      <c r="G55" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56">
-        <v>80</v>
-      </c>
-      <c r="D56" t="s">
-        <v>42</v>
-      </c>
-      <c r="E56">
-        <v>2017</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>89</v>
-      </c>
-      <c r="C57" s="10">
-        <f>C55/C56</f>
-        <v>2.086E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="B59" s="32">
-        <f>B48*$C$57</f>
-        <v>2.3467499999999999E-2</v>
-      </c>
-      <c r="C59" s="32">
-        <f t="shared" ref="C59:E59" si="15">C48*$C$57</f>
-        <v>3.7000424999999999</v>
-      </c>
-      <c r="D59" s="32">
-        <f t="shared" si="15"/>
-        <v>37.477597500000002</v>
-      </c>
-      <c r="E59" s="32">
-        <f t="shared" si="15"/>
-        <v>124.29431</v>
-      </c>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
+      <c r="B39" s="28">
+        <f>B28*$C$37</f>
+        <v>3.1289999999999998E-2</v>
+      </c>
+      <c r="C39" s="28">
+        <f t="shared" ref="C39:E39" si="0">C28*$C$37</f>
+        <v>4.9333900000000002</v>
+      </c>
+      <c r="D39" s="28">
+        <f t="shared" si="0"/>
+        <v>49.970129999999997</v>
+      </c>
+      <c r="E39" s="28">
+        <f t="shared" si="0"/>
+        <v>160.16308000000001</v>
+      </c>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{45DD5CF1-C46A-42D6-A7D7-A22A80577B18}"/>
-    <hyperlink ref="G56" r:id="rId2" xr:uid="{89957D1A-BCF1-498F-B397-AE2ACF2DE8B9}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="G36" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2676,27 +2172,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:N2"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.86328125" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" customWidth="1"/>
+    <col min="15" max="15" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="33" max="34" width="12" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
@@ -2803,7 +2299,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -2817,128 +2313,128 @@
         <v>0</v>
       </c>
       <c r="E2" s="14">
-        <f>'Texas Data'!B59*1000000</f>
-        <v>23467.5</v>
+        <f>'Texas Data'!B39*1000000</f>
+        <v>31290</v>
       </c>
       <c r="F2" s="14">
         <f>0.9*E2+0.1*O2</f>
-        <v>391125</v>
+        <v>521500</v>
       </c>
       <c r="G2" s="14">
         <f>0.8*E2+0.2*O2</f>
-        <v>758782.5</v>
+        <v>1011710</v>
       </c>
       <c r="H2" s="14">
         <f>0.7*E2+0.3*O2</f>
-        <v>1126440</v>
+        <v>1501920</v>
       </c>
       <c r="I2" s="14">
         <f>0.6*E2+0.4*O2</f>
-        <v>1494097.5</v>
+        <v>1992130</v>
       </c>
       <c r="J2" s="14">
         <f>0.5*E2+0.5*O2</f>
-        <v>1861755</v>
+        <v>2482340</v>
       </c>
       <c r="K2" s="14">
         <f>0.4*E2+0.6*O2</f>
-        <v>2229412.5</v>
+        <v>2972550</v>
       </c>
       <c r="L2" s="14">
         <f>0.3*E2+0.7*O2</f>
-        <v>2597070</v>
+        <v>3462760</v>
       </c>
       <c r="M2" s="14">
         <f>0.2*E2+0.8*O2</f>
-        <v>2964727.5</v>
+        <v>3952970</v>
       </c>
       <c r="N2" s="14">
         <f>0.1*E2+0.9*O2</f>
-        <v>3332385</v>
+        <v>4443180</v>
       </c>
       <c r="O2" s="14">
-        <f>'Texas Data'!C59*1000000</f>
-        <v>3700042.5</v>
+        <f>'Texas Data'!C39*1000000</f>
+        <v>4933390</v>
       </c>
       <c r="P2" s="14">
         <f>0.9*O2+0.1*Y2</f>
-        <v>7077798</v>
+        <v>9437064</v>
       </c>
       <c r="Q2" s="14">
         <f>0.8*O2+0.2*Y2</f>
-        <v>10455553.5</v>
+        <v>13940738</v>
       </c>
       <c r="R2" s="14">
         <f>0.7*O2+0.3*Y2</f>
-        <v>13833309</v>
+        <v>18444412</v>
       </c>
       <c r="S2" s="14">
         <f>0.6*O2+0.4*Y2</f>
-        <v>17211064.5</v>
+        <v>22948086</v>
       </c>
       <c r="T2" s="14">
         <f>0.5*O2+0.5*Y2</f>
-        <v>20588820</v>
+        <v>27451760</v>
       </c>
       <c r="U2" s="14">
         <f>0.4*O2+0.6*Y2</f>
-        <v>23966575.5</v>
+        <v>31955434</v>
       </c>
       <c r="V2" s="14">
         <f>0.3*O2+0.7*Y2</f>
-        <v>27344331</v>
+        <v>36459108</v>
       </c>
       <c r="W2" s="14">
         <f>0.2*O2+0.8*Y2</f>
-        <v>30722086.5</v>
+        <v>40962782</v>
       </c>
       <c r="X2" s="14">
         <f>0.1*O2+0.9*Y2</f>
-        <v>34099842</v>
+        <v>45466456</v>
       </c>
       <c r="Y2" s="14">
-        <f>'Texas Data'!D59*1000000</f>
-        <v>37477597.5</v>
+        <f>'Texas Data'!D39*1000000</f>
+        <v>49970130</v>
       </c>
       <c r="Z2" s="14">
         <f>0.9*Y2+0.1*AI2</f>
-        <v>46159268.75</v>
+        <v>60989425</v>
       </c>
       <c r="AA2" s="14">
         <f>0.8*Y2+0.2*AI2</f>
-        <v>54840940</v>
+        <v>72008720</v>
       </c>
       <c r="AB2" s="14">
         <f>0.7*Y2+0.3*AI2</f>
-        <v>63522611.25</v>
+        <v>83028015</v>
       </c>
       <c r="AC2" s="14">
         <f>0.6*Y2+0.4*AI2</f>
-        <v>72204282.5</v>
+        <v>94047310</v>
       </c>
       <c r="AD2" s="14">
         <f>0.5*Y2+0.5*AI2</f>
-        <v>80885953.75</v>
+        <v>105066605</v>
       </c>
       <c r="AE2" s="14">
         <f>0.4*Y2+0.6*AI2</f>
-        <v>89567625</v>
+        <v>116085900</v>
       </c>
       <c r="AF2" s="14">
         <f>0.3*Y2+0.7*AI2</f>
-        <v>98249296.25</v>
+        <v>127105195</v>
       </c>
       <c r="AG2" s="14">
         <f>0.2*Y2+0.8*AI2</f>
-        <v>106930967.5</v>
+        <v>138124490</v>
       </c>
       <c r="AH2" s="14">
         <f>0.1*Y2+0.9*AI2</f>
-        <v>115612638.75</v>
+        <v>149143785</v>
       </c>
       <c r="AI2">
-        <f>'Texas Data'!E59*1000000</f>
-        <v>124294310</v>
+        <f>'Texas Data'!E39*1000000</f>
+        <v>160163080</v>
       </c>
     </row>
   </sheetData>
@@ -2947,23 +2443,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:N2"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.73046875" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -3070,148 +2566,148 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="14">
         <f t="shared" ref="B2:C2" si="0">C2</f>
-        <v>6528455.125</v>
+        <v>5237420</v>
       </c>
       <c r="C2" s="14">
         <f t="shared" si="0"/>
-        <v>6528455.125</v>
+        <v>5237420</v>
       </c>
       <c r="D2" s="14">
         <f>E2</f>
-        <v>6528455.125</v>
+        <v>5237420</v>
       </c>
       <c r="E2" s="14">
-        <f>'Texas Data'!B41</f>
-        <v>6528455.125</v>
+        <f>'Texas Data'!B26</f>
+        <v>5237420</v>
       </c>
       <c r="F2" s="14">
         <f>0.9*E2+0.1*O2</f>
-        <v>6515318.9249999998</v>
+        <v>5237420</v>
       </c>
       <c r="G2" s="14">
         <f>0.8*E2+0.2*O2</f>
-        <v>6502182.7250000006</v>
+        <v>5237420</v>
       </c>
       <c r="H2" s="14">
         <f>0.7*E2+0.3*O2</f>
-        <v>6489046.5249999994</v>
+        <v>5237420</v>
       </c>
       <c r="I2" s="14">
         <f>0.6*E2+0.4*O2</f>
-        <v>6475910.3249999993</v>
+        <v>5237420</v>
       </c>
       <c r="J2" s="14">
         <f>0.5*E2+0.5*O2</f>
-        <v>6462774.125</v>
+        <v>5237420</v>
       </c>
       <c r="K2" s="14">
         <f>0.4*E2+0.6*O2</f>
-        <v>6449637.9250000007</v>
+        <v>5237420</v>
       </c>
       <c r="L2" s="14">
         <f>0.3*E2+0.7*O2</f>
-        <v>6436501.7249999996</v>
+        <v>5237420</v>
       </c>
       <c r="M2" s="14">
         <f>0.2*E2+0.8*O2</f>
-        <v>6423365.5250000004</v>
+        <v>5237420</v>
       </c>
       <c r="N2" s="14">
         <f>0.1*E2+0.9*O2</f>
-        <v>6410229.3250000002</v>
+        <v>5237420</v>
       </c>
       <c r="O2" s="14">
-        <f>'Texas Data'!C41</f>
-        <v>6397093.125</v>
+        <f>'Texas Data'!C26</f>
+        <v>5237420</v>
       </c>
       <c r="P2" s="14">
         <f>0.9*O2+0.1*Y2</f>
-        <v>6384639.3250000002</v>
+        <v>5237420</v>
       </c>
       <c r="Q2" s="14">
         <f>0.8*O2+0.2*Y2</f>
-        <v>6372185.5250000004</v>
+        <v>5237420</v>
       </c>
       <c r="R2" s="14">
         <f>0.7*O2+0.3*Y2</f>
-        <v>6359731.7249999996</v>
+        <v>5237420</v>
       </c>
       <c r="S2" s="14">
         <f>0.6*O2+0.4*Y2</f>
-        <v>6347277.9250000007</v>
+        <v>5237420</v>
       </c>
       <c r="T2" s="14">
         <f>0.5*O2+0.5*Y2</f>
-        <v>6334824.125</v>
+        <v>5237420</v>
       </c>
       <c r="U2" s="14">
         <f>0.4*O2+0.6*Y2</f>
-        <v>6322370.3249999993</v>
+        <v>5237420</v>
       </c>
       <c r="V2" s="14">
         <f>0.3*O2+0.7*Y2</f>
-        <v>6309916.5249999994</v>
+        <v>5237420</v>
       </c>
       <c r="W2" s="14">
         <f>0.2*O2+0.8*Y2</f>
-        <v>6297462.7250000006</v>
+        <v>5237420</v>
       </c>
       <c r="X2" s="14">
         <f>0.1*O2+0.9*Y2</f>
-        <v>6285008.9249999998</v>
+        <v>5237420</v>
       </c>
       <c r="Y2" s="14">
-        <f>'Texas Data'!D41</f>
-        <v>6272555.125</v>
+        <f>'Texas Data'!D26</f>
+        <v>5237420</v>
       </c>
       <c r="Z2" s="14">
         <f>0.9*Y2+0.1*AI2</f>
-        <v>6260783.7249999996</v>
+        <v>5237420</v>
       </c>
       <c r="AA2" s="14">
         <f>0.8*Y2+0.2*AI2</f>
-        <v>6249012.3250000011</v>
+        <v>5237420</v>
       </c>
       <c r="AB2" s="14">
         <f>0.7*Y2+0.3*AI2</f>
-        <v>6237240.9249999989</v>
+        <v>5237420</v>
       </c>
       <c r="AC2" s="14">
         <f>0.6*Y2+0.4*AI2</f>
-        <v>6225469.5250000004</v>
+        <v>5237420</v>
       </c>
       <c r="AD2" s="14">
         <f>0.5*Y2+0.5*AI2</f>
-        <v>6213698.125</v>
+        <v>5237420</v>
       </c>
       <c r="AE2" s="14">
         <f>0.4*Y2+0.6*AI2</f>
-        <v>6201926.7249999996</v>
+        <v>5237420</v>
       </c>
       <c r="AF2" s="14">
         <f>0.3*Y2+0.7*AI2</f>
-        <v>6190155.3249999993</v>
+        <v>5237420</v>
       </c>
       <c r="AG2" s="14">
         <f>0.2*Y2+0.8*AI2</f>
-        <v>6178383.9250000007</v>
+        <v>5237420</v>
       </c>
       <c r="AH2" s="14">
         <f>0.1*Y2+0.9*AI2</f>
-        <v>6166612.5250000004</v>
+        <v>5237420</v>
       </c>
       <c r="AI2" s="14">
-        <f>'Texas Data'!E41</f>
-        <v>6154841.125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+        <f>'Texas Data'!E26</f>
+        <v>5237420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
         <v>69</v>
       </c>
@@ -3283,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="14">
-        <f t="shared" ref="D2:AI10" si="2">$B3</f>
+        <f t="shared" ref="D3:AI10" si="2">$B3</f>
         <v>0</v>
       </c>
       <c r="T3" s="14">
@@ -3351,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="15" t="s">
         <v>70</v>
       </c>
@@ -3491,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>71</v>
       </c>
@@ -3631,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="15" t="s">
         <v>72</v>
       </c>
@@ -3771,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="15" t="s">
         <v>73</v>
       </c>
@@ -3911,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="15" t="s">
         <v>74</v>
       </c>
@@ -4051,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="15" t="s">
         <v>75</v>
       </c>
@@ -4191,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="15" t="s">
         <v>76</v>
       </c>
@@ -4331,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
         <v>77</v>
       </c>
@@ -4477,23 +3973,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L33:L34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.73046875" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -4600,145 +4096,145 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="14">
         <f t="shared" ref="B2:C2" si="0">(C2-D2)+C2</f>
-        <v>707.69142249999993</v>
+        <v>986.39450000000011</v>
       </c>
       <c r="C2" s="14">
         <f t="shared" si="0"/>
-        <v>676.19336499999997</v>
+        <v>986.39450000000011</v>
       </c>
       <c r="D2" s="14">
         <f>(E2-F2)+E2</f>
-        <v>644.69530750000001</v>
+        <v>986.39450000000011</v>
       </c>
       <c r="E2" s="14">
-        <f>'Texas Data'!B28</f>
-        <v>613.19725000000005</v>
+        <f>'Texas Data'!B22</f>
+        <v>986.39450000000011</v>
       </c>
       <c r="F2" s="14">
         <f>0.9*E2+0.1*O2</f>
-        <v>581.69919250000009</v>
+        <v>986.39450000000011</v>
       </c>
       <c r="G2" s="14">
         <f>0.8*E2+0.2*O2</f>
-        <v>550.20113500000002</v>
+        <v>986.39450000000011</v>
       </c>
       <c r="H2" s="14">
         <f>0.7*E2+0.3*O2</f>
-        <v>518.70307750000006</v>
+        <v>986.39450000000011</v>
       </c>
       <c r="I2" s="14">
         <f>0.6*E2+0.4*O2</f>
-        <v>487.20502000000005</v>
+        <v>986.39450000000011</v>
       </c>
       <c r="J2" s="14">
         <f>0.5*E2+0.5*O2</f>
-        <v>455.70696250000003</v>
+        <v>986.39450000000011</v>
       </c>
       <c r="K2" s="14">
         <f>0.4*E2+0.6*O2</f>
-        <v>424.20890500000002</v>
+        <v>986.39450000000011</v>
       </c>
       <c r="L2" s="14">
         <f>0.3*E2+0.7*O2</f>
-        <v>392.7108475</v>
+        <v>986.39450000000011</v>
       </c>
       <c r="M2" s="14">
         <f>0.2*E2+0.8*O2</f>
-        <v>361.21279000000004</v>
+        <v>986.39450000000011</v>
       </c>
       <c r="N2" s="14">
         <f>0.1*E2+0.9*O2</f>
-        <v>329.71473250000003</v>
+        <v>986.39450000000011</v>
       </c>
       <c r="O2" s="14">
-        <f>'Texas Data'!C28</f>
-        <v>298.21667500000001</v>
+        <f>'Texas Data'!C22</f>
+        <v>986.39450000000011</v>
       </c>
       <c r="P2" s="14">
         <f>0.9*O2+0.1*Y2</f>
-        <v>292.10466000000002</v>
+        <v>986.39450000000011</v>
       </c>
       <c r="Q2" s="14">
         <f>0.8*O2+0.2*Y2</f>
-        <v>285.99264500000004</v>
+        <v>986.39450000000011</v>
       </c>
       <c r="R2" s="14">
         <f>0.7*O2+0.3*Y2</f>
-        <v>279.88063</v>
+        <v>986.39450000000011</v>
       </c>
       <c r="S2" s="14">
         <f>0.6*O2+0.4*Y2</f>
-        <v>273.76861500000001</v>
+        <v>986.39450000000011</v>
       </c>
       <c r="T2" s="14">
         <f>0.5*O2+0.5*Y2</f>
-        <v>267.65660000000003</v>
+        <v>986.39450000000011</v>
       </c>
       <c r="U2" s="14">
         <f>0.4*O2+0.6*Y2</f>
-        <v>261.54458499999998</v>
+        <v>986.39450000000011</v>
       </c>
       <c r="V2" s="14">
         <f>0.3*O2+0.7*Y2</f>
-        <v>255.43257</v>
+        <v>986.39450000000011</v>
       </c>
       <c r="W2" s="14">
         <f>0.2*O2+0.8*Y2</f>
-        <v>249.32055500000004</v>
+        <v>986.39450000000011</v>
       </c>
       <c r="X2" s="14">
         <f>0.1*O2+0.9*Y2</f>
-        <v>243.20854000000003</v>
+        <v>986.39450000000011</v>
       </c>
       <c r="Y2" s="14">
-        <f>'Texas Data'!D28</f>
-        <v>237.09652500000001</v>
+        <f>'Texas Data'!D22</f>
+        <v>986.39450000000011</v>
       </c>
       <c r="Z2" s="14">
         <f>0.9*Y2+0.1*AI2</f>
-        <v>234.91798500000002</v>
+        <v>986.39450000000011</v>
       </c>
       <c r="AA2" s="14">
         <f>0.8*Y2+0.2*AI2</f>
-        <v>232.73944500000005</v>
+        <v>986.39450000000011</v>
       </c>
       <c r="AB2" s="14">
         <f>0.7*Y2+0.3*AI2</f>
-        <v>230.56090499999999</v>
+        <v>986.39450000000011</v>
       </c>
       <c r="AC2" s="14">
         <f>0.6*Y2+0.4*AI2</f>
-        <v>228.38236499999999</v>
+        <v>986.39450000000011</v>
       </c>
       <c r="AD2" s="14">
         <f>0.5*Y2+0.5*AI2</f>
-        <v>226.20382499999999</v>
+        <v>986.39450000000011</v>
       </c>
       <c r="AE2" s="14">
         <f>0.4*Y2+0.6*AI2</f>
-        <v>224.02528500000003</v>
+        <v>986.39450000000011</v>
       </c>
       <c r="AF2" s="14">
         <f>0.3*Y2+0.7*AI2</f>
-        <v>221.846745</v>
+        <v>986.39450000000011</v>
       </c>
       <c r="AG2" s="14">
         <f>0.2*Y2+0.8*AI2</f>
-        <v>219.66820500000003</v>
+        <v>986.39450000000011</v>
       </c>
       <c r="AH2" s="14">
         <f>0.1*Y2+0.9*AI2</f>
-        <v>217.489665</v>
+        <v>986.39450000000011</v>
       </c>
       <c r="AI2" s="14">
-        <f>'Texas Data'!E28</f>
-        <v>215.311125</v>
+        <f>'Texas Data'!E22</f>
+        <v>986.39450000000011</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/geoeng/DACD/Direct Air Capture Data.xlsx
+++ b/InputData/geoeng/DACD/Direct Air Capture Data.xlsx
@@ -5,39 +5,32 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-texas\InputData\geoeng\DACD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-texas\InputData\geoeng\DACD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5445" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6015"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="Texas Data" sheetId="8" r:id="rId3"/>
-    <sheet name="DACD-potential" sheetId="3" r:id="rId4"/>
-    <sheet name="DACD-energyintensity" sheetId="5" r:id="rId5"/>
-    <sheet name="DACD-capex" sheetId="6" r:id="rId6"/>
+    <sheet name="WISdom Comparison" sheetId="9" r:id="rId4"/>
+    <sheet name="DACD-potential" sheetId="3" r:id="rId5"/>
+    <sheet name="DACD-energyintensity" sheetId="5" r:id="rId6"/>
+    <sheet name="DACD-capex" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="134">
   <si>
     <t>Sources:</t>
   </si>
@@ -385,6 +378,60 @@
   </si>
   <si>
     <t>Constant btu/ton for EPS model</t>
+  </si>
+  <si>
+    <t>Advanced Sequestration - tCO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Max Setting</t>
+  </si>
+  <si>
+    <t>adv seq</t>
+  </si>
+  <si>
+    <t>elec</t>
+  </si>
+  <si>
+    <t>2035</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>mmt:</t>
+  </si>
+  <si>
+    <t>Scenario 2035 - tCO2</t>
+  </si>
+  <si>
+    <t>Electrification - tCO2</t>
+  </si>
+  <si>
+    <t>use the highest DACS scenario to set upper limit</t>
+  </si>
+  <si>
+    <t>use initial for this, 0 in WISdom</t>
+  </si>
+  <si>
+    <t>WISdom Matched Texas Average mmt/year</t>
+  </si>
+  <si>
+    <t>Don't Mess with Texas: Getting the Lone Star State to Net-Zero by 2050</t>
+  </si>
+  <si>
+    <t>Hydrogen - tCO2</t>
+  </si>
+  <si>
+    <t>Texas Additional Storage Potential</t>
+  </si>
+  <si>
+    <t>UT Austin and Vibrant Clean Energy</t>
+  </si>
+  <si>
+    <t>Forthcoming Report</t>
   </si>
 </sst>
 </file>
@@ -395,7 +442,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,6 +503,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -489,12 +564,154 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -503,7 +720,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -543,8 +760,38 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -933,34 +1180,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.1328125" customWidth="1"/>
     <col min="2" max="2" width="47.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -968,98 +1215,153 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="7">
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="48"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B15" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B16" s="51">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B17" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B18" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1077,14 +1379,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.265625" customWidth="1"/>
-    <col min="2" max="8" width="11.3984375" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="2" max="8" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -1265,13 +1567,13 @@
       <c r="A27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
@@ -1789,16 +2091,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="46.265625" customWidth="1"/>
-    <col min="2" max="8" width="11.3984375" customWidth="1"/>
+    <col min="1" max="1" width="46.33203125" customWidth="1"/>
+    <col min="2" max="8" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
@@ -2147,21 +2449,56 @@
         <v>3.1289999999999998E-2</v>
       </c>
       <c r="C39" s="28">
-        <f t="shared" ref="C39:E39" si="0">C28*$C$37</f>
+        <f>C28*$C$37</f>
         <v>4.9333900000000002</v>
       </c>
       <c r="D39" s="28">
-        <f t="shared" si="0"/>
+        <f>D28*$C$37</f>
         <v>49.970129999999997</v>
       </c>
       <c r="E39" s="28">
-        <f t="shared" si="0"/>
+        <f>E28*$C$37</f>
         <v>160.16308000000001</v>
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="27"/>
     </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="28">
+        <f>B39</f>
+        <v>3.1289999999999998E-2</v>
+      </c>
+      <c r="C41" s="27">
+        <f>'WISdom Comparison'!E18</f>
+        <v>145.24144314341501</v>
+      </c>
+      <c r="D41" s="27">
+        <f>'WISdom Comparison'!G18</f>
+        <v>491.46340172828695</v>
+      </c>
+      <c r="E41" s="27">
+        <f>'WISdom Comparison'!N5</f>
+        <v>900</v>
+      </c>
+      <c r="F41" s="27"/>
+    </row>
+    <row r="42" spans="1:7" ht="49.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C42:E42"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="G36" r:id="rId2"/>
@@ -2173,268 +2510,1716 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A3:N75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="19.86328125" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" customWidth="1"/>
-    <col min="15" max="15" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="12" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="4">
-        <v>2017</v>
-      </c>
-      <c r="C1">
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A3" s="29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="31">
         <v>2018</v>
       </c>
-      <c r="D1">
-        <v>2019</v>
-      </c>
-      <c r="E1">
+      <c r="C4" s="31">
         <v>2020</v>
       </c>
-      <c r="F1">
-        <v>2021</v>
-      </c>
-      <c r="G1">
-        <v>2022</v>
-      </c>
-      <c r="H1">
-        <v>2023</v>
-      </c>
-      <c r="I1">
-        <v>2024</v>
-      </c>
-      <c r="J1">
+      <c r="D4" s="31">
         <v>2025</v>
       </c>
-      <c r="K1">
-        <v>2026</v>
-      </c>
-      <c r="L1">
-        <v>2027</v>
-      </c>
-      <c r="M1">
-        <v>2028</v>
-      </c>
-      <c r="N1">
-        <v>2029</v>
-      </c>
-      <c r="O1">
+      <c r="E4" s="31">
         <v>2030</v>
       </c>
-      <c r="P1">
-        <v>2031</v>
-      </c>
-      <c r="Q1">
-        <v>2032</v>
-      </c>
-      <c r="R1">
-        <v>2033</v>
-      </c>
-      <c r="S1">
-        <v>2034</v>
-      </c>
-      <c r="T1">
+      <c r="F4" s="31">
         <v>2035</v>
       </c>
-      <c r="U1">
-        <v>2036</v>
-      </c>
-      <c r="V1">
-        <v>2037</v>
-      </c>
-      <c r="W1">
-        <v>2038</v>
-      </c>
-      <c r="X1">
-        <v>2039</v>
-      </c>
-      <c r="Y1">
+      <c r="G4" s="31">
         <v>2040</v>
       </c>
-      <c r="Z1">
-        <v>2041</v>
-      </c>
-      <c r="AA1">
-        <v>2042</v>
-      </c>
-      <c r="AB1">
-        <v>2043</v>
-      </c>
-      <c r="AC1">
-        <v>2044</v>
-      </c>
-      <c r="AD1">
+      <c r="H4" s="31">
         <v>2045</v>
       </c>
-      <c r="AE1">
-        <v>2046</v>
-      </c>
-      <c r="AF1">
-        <v>2047</v>
-      </c>
-      <c r="AG1">
-        <v>2048</v>
-      </c>
-      <c r="AH1">
-        <v>2049</v>
-      </c>
-      <c r="AI1">
+      <c r="I4" s="32">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="14">
-        <v>0</v>
-      </c>
-      <c r="E2" s="14">
-        <f>'Texas Data'!B39*1000000</f>
-        <v>31290</v>
-      </c>
-      <c r="F2" s="14">
-        <f>0.9*E2+0.1*O2</f>
-        <v>521500</v>
-      </c>
-      <c r="G2" s="14">
-        <f>0.8*E2+0.2*O2</f>
-        <v>1011710</v>
-      </c>
-      <c r="H2" s="14">
-        <f>0.7*E2+0.3*O2</f>
-        <v>1501920</v>
-      </c>
-      <c r="I2" s="14">
-        <f>0.6*E2+0.4*O2</f>
-        <v>1992130</v>
-      </c>
-      <c r="J2" s="14">
-        <f>0.5*E2+0.5*O2</f>
-        <v>2482340</v>
-      </c>
-      <c r="K2" s="14">
-        <f>0.4*E2+0.6*O2</f>
-        <v>2972550</v>
-      </c>
-      <c r="L2" s="14">
-        <f>0.3*E2+0.7*O2</f>
-        <v>3462760</v>
-      </c>
-      <c r="M2" s="14">
-        <f>0.2*E2+0.8*O2</f>
-        <v>3952970</v>
-      </c>
-      <c r="N2" s="14">
-        <f>0.1*E2+0.9*O2</f>
-        <v>4443180</v>
-      </c>
-      <c r="O2" s="14">
-        <f>'Texas Data'!C39*1000000</f>
-        <v>4933390</v>
-      </c>
-      <c r="P2" s="14">
-        <f>0.9*O2+0.1*Y2</f>
-        <v>9437064</v>
-      </c>
-      <c r="Q2" s="14">
-        <f>0.8*O2+0.2*Y2</f>
-        <v>13940738</v>
-      </c>
-      <c r="R2" s="14">
-        <f>0.7*O2+0.3*Y2</f>
-        <v>18444412</v>
-      </c>
-      <c r="S2" s="14">
-        <f>0.6*O2+0.4*Y2</f>
-        <v>22948086</v>
-      </c>
-      <c r="T2" s="14">
-        <f>0.5*O2+0.5*Y2</f>
-        <v>27451760</v>
-      </c>
-      <c r="U2" s="14">
-        <f>0.4*O2+0.6*Y2</f>
-        <v>31955434</v>
-      </c>
-      <c r="V2" s="14">
-        <f>0.3*O2+0.7*Y2</f>
-        <v>36459108</v>
-      </c>
-      <c r="W2" s="14">
-        <f>0.2*O2+0.8*Y2</f>
-        <v>40962782</v>
-      </c>
-      <c r="X2" s="14">
-        <f>0.1*O2+0.9*Y2</f>
-        <v>45466456</v>
-      </c>
-      <c r="Y2" s="14">
-        <f>'Texas Data'!D39*1000000</f>
-        <v>49970130</v>
-      </c>
-      <c r="Z2" s="14">
-        <f>0.9*Y2+0.1*AI2</f>
-        <v>60989425</v>
-      </c>
-      <c r="AA2" s="14">
-        <f>0.8*Y2+0.2*AI2</f>
-        <v>72008720</v>
-      </c>
-      <c r="AB2" s="14">
-        <f>0.7*Y2+0.3*AI2</f>
-        <v>83028015</v>
-      </c>
-      <c r="AC2" s="14">
-        <f>0.6*Y2+0.4*AI2</f>
-        <v>94047310</v>
-      </c>
-      <c r="AD2" s="14">
-        <f>0.5*Y2+0.5*AI2</f>
-        <v>105066605</v>
-      </c>
-      <c r="AE2" s="14">
-        <f>0.4*Y2+0.6*AI2</f>
-        <v>116085900</v>
-      </c>
-      <c r="AF2" s="14">
-        <f>0.3*Y2+0.7*AI2</f>
-        <v>127105195</v>
-      </c>
-      <c r="AG2" s="14">
-        <f>0.2*Y2+0.8*AI2</f>
-        <v>138124490</v>
-      </c>
-      <c r="AH2" s="14">
-        <f>0.1*Y2+0.9*AI2</f>
-        <v>149143785</v>
-      </c>
-      <c r="AI2">
-        <f>'Texas Data'!E39*1000000</f>
-        <v>160163080</v>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5" s="33">
+        <v>57</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>3.954062</v>
+      </c>
+      <c r="E5">
+        <v>105.711485</v>
+      </c>
+      <c r="F5">
+        <v>1591456.8112049999</v>
+      </c>
+      <c r="G5">
+        <v>1517901.181513</v>
+      </c>
+      <c r="H5">
+        <v>2563917.6952379998</v>
+      </c>
+      <c r="I5" s="34">
+        <v>6830487.0229700003</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="N5" s="36">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" s="33">
+        <v>58</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>3.37479</v>
+      </c>
+      <c r="E6">
+        <v>197.07843099999999</v>
+      </c>
+      <c r="F6">
+        <v>3105330.1938379998</v>
+      </c>
+      <c r="G6">
+        <v>3783561.6263310001</v>
+      </c>
+      <c r="H6">
+        <v>4219025.9008400002</v>
+      </c>
+      <c r="I6" s="34">
+        <v>4674180.7977590002</v>
+      </c>
+      <c r="M6" s="37"/>
+      <c r="N6" s="38"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" s="33">
+        <v>59</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>4.753501</v>
+      </c>
+      <c r="E7">
+        <v>2976218.4431369998</v>
+      </c>
+      <c r="F7">
+        <v>22265759.250978</v>
+      </c>
+      <c r="G7">
+        <v>32119904.470029999</v>
+      </c>
+      <c r="H7">
+        <v>50837868.053783</v>
+      </c>
+      <c r="I7" s="34">
+        <v>62238866.736135997</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="N7" s="39">
+        <f>I18/N5</f>
+        <v>0.99793772504886802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" s="33">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>3.32605</v>
+      </c>
+      <c r="E8">
+        <v>1009516.141737</v>
+      </c>
+      <c r="F8">
+        <v>812831.09579799999</v>
+      </c>
+      <c r="G8">
+        <v>1125331.456582</v>
+      </c>
+      <c r="H8">
+        <v>2549944.0605040002</v>
+      </c>
+      <c r="I8" s="34">
+        <v>4387438.1859940002</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="N8" s="39">
+        <f>I56/N5</f>
+        <v>0.39832405326673209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" s="33">
+        <v>61</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>6.8789920000000002</v>
+      </c>
+      <c r="E9">
+        <v>42729147.647059001</v>
+      </c>
+      <c r="F9">
+        <v>77309995.774790004</v>
+      </c>
+      <c r="G9">
+        <v>152023134.85770199</v>
+      </c>
+      <c r="H9">
+        <v>244754363.820728</v>
+      </c>
+      <c r="I9" s="34">
+        <v>300895180.35070002</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="N9" s="39">
+        <f>I38/N5</f>
+        <v>0.38194024561593554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="33">
+        <v>62</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>4.0123249999999997</v>
+      </c>
+      <c r="E10">
+        <v>745648.34285699995</v>
+      </c>
+      <c r="F10">
+        <v>11025907.660505001</v>
+      </c>
+      <c r="G10">
+        <v>23971349.999999002</v>
+      </c>
+      <c r="H10">
+        <v>35121428.087394997</v>
+      </c>
+      <c r="I10" s="34">
+        <v>45207090.936694004</v>
+      </c>
+      <c r="M10" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="42">
+        <f>I75/N5</f>
+        <v>0.24070712030377109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" s="33">
+        <v>63</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>5.7574230000000002</v>
+      </c>
+      <c r="E11">
+        <v>43476207.221286997</v>
+      </c>
+      <c r="F11">
+        <v>102426825.06890599</v>
+      </c>
+      <c r="G11">
+        <v>146030241.33333001</v>
+      </c>
+      <c r="H11">
+        <v>169483554.68907699</v>
+      </c>
+      <c r="I11" s="34">
+        <v>248690343.28795701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" s="33">
+        <v>64</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>4.8285710000000002</v>
+      </c>
+      <c r="E12">
+        <v>7386985.2078440003</v>
+      </c>
+      <c r="F12">
+        <v>18413348.710363001</v>
+      </c>
+      <c r="G12">
+        <v>27747594.559664</v>
+      </c>
+      <c r="H12">
+        <v>29357395.093557</v>
+      </c>
+      <c r="I12" s="34">
+        <v>50124115.609523997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="33">
+        <v>65</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>3.464426</v>
+      </c>
+      <c r="E13">
+        <v>556742.56806700001</v>
+      </c>
+      <c r="F13">
+        <v>775152.412885</v>
+      </c>
+      <c r="G13">
+        <v>869540.83081199997</v>
+      </c>
+      <c r="H13">
+        <v>1243224.059384</v>
+      </c>
+      <c r="I13" s="34">
+        <v>1522402.5288509999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="33">
+        <v>66</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>4.1787109999999998</v>
+      </c>
+      <c r="E14">
+        <v>650031.87002799998</v>
+      </c>
+      <c r="F14">
+        <v>2448095.5904760002</v>
+      </c>
+      <c r="G14">
+        <v>2414335.2845939999</v>
+      </c>
+      <c r="H14">
+        <v>3536935.5322130001</v>
+      </c>
+      <c r="I14" s="34">
+        <v>8966389.9719900005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" s="33">
+        <v>67</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>4.2700279999999999</v>
+      </c>
+      <c r="E15">
+        <v>335.85546199999999</v>
+      </c>
+      <c r="F15">
+        <v>620.210644</v>
+      </c>
+      <c r="G15">
+        <v>1003.0095240000001</v>
+      </c>
+      <c r="H15">
+        <v>1157.0431369999999</v>
+      </c>
+      <c r="I15" s="34">
+        <v>86219.542856999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16" s="33">
+        <v>68</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>5.462745</v>
+      </c>
+      <c r="E16">
+        <v>45710307.056020997</v>
+      </c>
+      <c r="F16">
+        <v>64615616.810644001</v>
+      </c>
+      <c r="G16">
+        <v>99859503.118205994</v>
+      </c>
+      <c r="H16">
+        <v>143953914.12829101</v>
+      </c>
+      <c r="I16" s="34">
+        <v>164521237.57254899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="33"/>
+      <c r="I17" s="34"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="43"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="44">
+        <f>SUM(D5:D16)/1000000</f>
+        <v>5.4261624000000015E-5</v>
+      </c>
+      <c r="E18" s="44">
+        <f t="shared" ref="E18:I18" si="0">SUM(E5:E16)/1000000</f>
+        <v>145.24144314341501</v>
+      </c>
+      <c r="F18" s="44">
+        <f t="shared" si="0"/>
+        <v>304.79093959103204</v>
+      </c>
+      <c r="G18" s="44">
+        <f t="shared" si="0"/>
+        <v>491.46340172828695</v>
+      </c>
+      <c r="H18" s="44">
+        <f t="shared" si="0"/>
+        <v>687.62272816414691</v>
+      </c>
+      <c r="I18" s="45">
+        <f t="shared" si="0"/>
+        <v>898.14395254398119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A23" s="29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="31">
+        <v>2018</v>
+      </c>
+      <c r="C24" s="31">
+        <v>2020</v>
+      </c>
+      <c r="D24" s="31">
+        <v>2025</v>
+      </c>
+      <c r="E24" s="31">
+        <v>2030</v>
+      </c>
+      <c r="F24" s="31">
+        <v>2035</v>
+      </c>
+      <c r="G24" s="31">
+        <v>2040</v>
+      </c>
+      <c r="H24" s="31">
+        <v>2045</v>
+      </c>
+      <c r="I24" s="32">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" s="33">
+        <v>57</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>7.3820730000000001</v>
+      </c>
+      <c r="E25">
+        <v>38.191597000000002</v>
+      </c>
+      <c r="F25">
+        <v>4001603.020728</v>
+      </c>
+      <c r="G25">
+        <v>7182955.5372550003</v>
+      </c>
+      <c r="H25">
+        <v>7783082.7322129998</v>
+      </c>
+      <c r="I25" s="34">
+        <v>6845039.8610650003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="33">
+        <v>58</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>6.7574230000000002</v>
+      </c>
+      <c r="E26">
+        <v>53.941175999999999</v>
+      </c>
+      <c r="F26">
+        <v>10333936.346218999</v>
+      </c>
+      <c r="G26">
+        <v>14066022.42465</v>
+      </c>
+      <c r="H26">
+        <v>15562470.968627</v>
+      </c>
+      <c r="I26" s="34">
+        <v>14300811.992156001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="33">
+        <v>59</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>6.2677870000000002</v>
+      </c>
+      <c r="E27">
+        <v>3307537.3697480001</v>
+      </c>
+      <c r="F27">
+        <v>17244899.894118</v>
+      </c>
+      <c r="G27">
+        <v>23888952.902520999</v>
+      </c>
+      <c r="H27">
+        <v>31088684.356862001</v>
+      </c>
+      <c r="I27" s="34">
+        <v>30059435.90196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="33">
+        <v>60</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>6.3882349999999999</v>
+      </c>
+      <c r="E28">
+        <v>1027463.277311</v>
+      </c>
+      <c r="F28">
+        <v>16356081.688515</v>
+      </c>
+      <c r="G28">
+        <v>34866451.422968</v>
+      </c>
+      <c r="H28">
+        <v>38572143.203360997</v>
+      </c>
+      <c r="I28" s="34">
+        <v>37688285.557421997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" s="33">
+        <v>61</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>11.305882</v>
+      </c>
+      <c r="E29">
+        <v>31014509.842576999</v>
+      </c>
+      <c r="F29">
+        <v>32682534.412884001</v>
+      </c>
+      <c r="G29">
+        <v>45568900.569187999</v>
+      </c>
+      <c r="H29">
+        <v>61667673.468909003</v>
+      </c>
+      <c r="I29" s="34">
+        <v>82532728.135573998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" s="33">
+        <v>62</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>7.7607840000000001</v>
+      </c>
+      <c r="E30">
+        <v>241.44313700000001</v>
+      </c>
+      <c r="F30">
+        <v>243.607843</v>
+      </c>
+      <c r="G30">
+        <v>795436.81960799999</v>
+      </c>
+      <c r="H30">
+        <v>4777854.862745</v>
+      </c>
+      <c r="I30" s="34">
+        <v>9708400.4649860002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" s="33">
+        <v>63</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>8.8364150000000006</v>
+      </c>
+      <c r="E31">
+        <v>35325452.369186997</v>
+      </c>
+      <c r="F31">
+        <v>38617798.630252004</v>
+      </c>
+      <c r="G31">
+        <v>48781842.741177</v>
+      </c>
+      <c r="H31">
+        <v>59469489.578153998</v>
+      </c>
+      <c r="I31" s="34">
+        <v>75580154.443139002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" s="33">
+        <v>64</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>8.2616250000000004</v>
+      </c>
+      <c r="E32">
+        <v>4991715.6229689997</v>
+      </c>
+      <c r="F32">
+        <v>8595394.9535019994</v>
+      </c>
+      <c r="G32">
+        <v>17642048.391596001</v>
+      </c>
+      <c r="H32">
+        <v>20026522.539494999</v>
+      </c>
+      <c r="I32" s="34">
+        <v>24058447.794397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" s="33">
+        <v>65</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>5.8498599999999996</v>
+      </c>
+      <c r="E33">
+        <v>445349.23193299997</v>
+      </c>
+      <c r="F33">
+        <v>167159.73613400001</v>
+      </c>
+      <c r="G33">
+        <v>2293850.081793</v>
+      </c>
+      <c r="H33">
+        <v>4272649.6717090001</v>
+      </c>
+      <c r="I33" s="34">
+        <v>4646960.9086830001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" s="33">
+        <v>66</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>6.4336130000000002</v>
+      </c>
+      <c r="E34">
+        <v>523412.22521</v>
+      </c>
+      <c r="F34">
+        <v>727874.01736699999</v>
+      </c>
+      <c r="G34">
+        <v>6881401.184874</v>
+      </c>
+      <c r="H34">
+        <v>7438422.1344539998</v>
+      </c>
+      <c r="I34" s="34">
+        <v>7378996.1658269996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" s="33">
+        <v>67</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>7.2078430000000004</v>
+      </c>
+      <c r="E35">
+        <v>45.039776000000003</v>
+      </c>
+      <c r="F35">
+        <v>52.206161999999999</v>
+      </c>
+      <c r="G35">
+        <v>584.07114799999999</v>
+      </c>
+      <c r="H35">
+        <v>554831.87226900004</v>
+      </c>
+      <c r="I35" s="34">
+        <v>746345.477311</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" s="33">
+        <v>68</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>9.2084030000000006</v>
+      </c>
+      <c r="E36">
+        <v>26125619.179830998</v>
+      </c>
+      <c r="F36">
+        <v>29864735.028572001</v>
+      </c>
+      <c r="G36">
+        <v>33822850.52493</v>
+      </c>
+      <c r="H36">
+        <v>44299500.822968997</v>
+      </c>
+      <c r="I36" s="34">
+        <v>50200614.351822004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" s="33"/>
+      <c r="I37" s="34"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" s="43"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="44">
+        <f>SUM(D25:D36)/1000000</f>
+        <v>9.1659942999999997E-5</v>
+      </c>
+      <c r="E38" s="44">
+        <f t="shared" ref="E38:I38" si="1">SUM(E25:E36)/1000000</f>
+        <v>102.76143773445199</v>
+      </c>
+      <c r="F38" s="44">
+        <f t="shared" si="1"/>
+        <v>158.59231354229598</v>
+      </c>
+      <c r="G38" s="44">
+        <f t="shared" si="1"/>
+        <v>235.79129667170801</v>
+      </c>
+      <c r="H38" s="44">
+        <f t="shared" si="1"/>
+        <v>295.51332621176704</v>
+      </c>
+      <c r="I38" s="45">
+        <f t="shared" si="1"/>
+        <v>343.74622105434196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A41" s="29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A42" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="31">
+        <v>2018</v>
+      </c>
+      <c r="C42" s="31">
+        <v>2020</v>
+      </c>
+      <c r="D42" s="31">
+        <v>2025</v>
+      </c>
+      <c r="E42" s="31">
+        <v>2030</v>
+      </c>
+      <c r="F42" s="31">
+        <v>2035</v>
+      </c>
+      <c r="G42" s="31">
+        <v>2040</v>
+      </c>
+      <c r="H42" s="31">
+        <v>2045</v>
+      </c>
+      <c r="I42" s="32">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A43" s="33">
+        <v>57</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>6.5383750000000003</v>
+      </c>
+      <c r="E43">
+        <v>69.826891000000003</v>
+      </c>
+      <c r="F43">
+        <v>763428.62913200003</v>
+      </c>
+      <c r="G43">
+        <v>828315.97198899998</v>
+      </c>
+      <c r="H43">
+        <v>949324.73669499997</v>
+      </c>
+      <c r="I43" s="34">
+        <v>1862933.9714289999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" s="33">
+        <v>58</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>6.0823530000000003</v>
+      </c>
+      <c r="E44">
+        <v>96.357422999999997</v>
+      </c>
+      <c r="F44">
+        <v>3481567.3770309999</v>
+      </c>
+      <c r="G44">
+        <v>4001096.0117649999</v>
+      </c>
+      <c r="H44">
+        <v>4202422.6431379998</v>
+      </c>
+      <c r="I44" s="34">
+        <v>3957208.3316529999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45" s="33">
+        <v>59</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>6.1641459999999997</v>
+      </c>
+      <c r="E45">
+        <v>3307305.0537820002</v>
+      </c>
+      <c r="F45">
+        <v>15095457.921006</v>
+      </c>
+      <c r="G45">
+        <v>25544234.305879999</v>
+      </c>
+      <c r="H45">
+        <v>33508193.137258001</v>
+      </c>
+      <c r="I45" s="34">
+        <v>38931132.097482003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46" s="33">
+        <v>60</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>5.1478989999999998</v>
+      </c>
+      <c r="E46">
+        <v>1027492.8941180001</v>
+      </c>
+      <c r="F46">
+        <v>883116.89691899996</v>
+      </c>
+      <c r="G46">
+        <v>1065730.3232489999</v>
+      </c>
+      <c r="H46">
+        <v>2845998.6005600002</v>
+      </c>
+      <c r="I46" s="34">
+        <v>4646015.2532209996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A47" s="33">
+        <v>61</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>9.5260499999999997</v>
+      </c>
+      <c r="E47">
+        <v>31016283.706441998</v>
+      </c>
+      <c r="F47">
+        <v>37024251.885715</v>
+      </c>
+      <c r="G47">
+        <v>60637497.631373003</v>
+      </c>
+      <c r="H47">
+        <v>83276437.262746006</v>
+      </c>
+      <c r="I47" s="34">
+        <v>99672243.385434002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A48" s="33">
+        <v>62</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>6.6493000000000002</v>
+      </c>
+      <c r="E48">
+        <v>444.28515399999998</v>
+      </c>
+      <c r="F48">
+        <v>11689153.732772</v>
+      </c>
+      <c r="G48">
+        <v>13190773.731651001</v>
+      </c>
+      <c r="H48">
+        <v>18519872.080109999</v>
+      </c>
+      <c r="I48" s="34">
+        <v>25546460.631933</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A49" s="33">
+        <v>63</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>8.3551819999999992</v>
+      </c>
+      <c r="E49">
+        <v>35323816.716527</v>
+      </c>
+      <c r="F49">
+        <v>55834503.332773998</v>
+      </c>
+      <c r="G49">
+        <v>75418434.518767998</v>
+      </c>
+      <c r="H49">
+        <v>91563060.282350004</v>
+      </c>
+      <c r="I49" s="34">
+        <v>99930551.828009993</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A50" s="33">
+        <v>64</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>7.6173669999999998</v>
+      </c>
+      <c r="E50">
+        <v>4991878.0515409997</v>
+      </c>
+      <c r="F50">
+        <v>12622854.157982999</v>
+      </c>
+      <c r="G50">
+        <v>17114712.411763001</v>
+      </c>
+      <c r="H50">
+        <v>19611477.870026</v>
+      </c>
+      <c r="I50" s="34">
+        <v>25137019.337815002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A51" s="33">
+        <v>65</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>4.8448180000000001</v>
+      </c>
+      <c r="E51">
+        <v>445326.44649900001</v>
+      </c>
+      <c r="F51">
+        <v>899164.79159699997</v>
+      </c>
+      <c r="G51">
+        <v>1143689.228011</v>
+      </c>
+      <c r="H51">
+        <v>1304622.3876749999</v>
+      </c>
+      <c r="I51" s="34">
+        <v>1400632.9277309999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A52" s="33">
+        <v>66</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>5.7305320000000002</v>
+      </c>
+      <c r="E52">
+        <v>523697.62296900002</v>
+      </c>
+      <c r="F52">
+        <v>2285089.1703079999</v>
+      </c>
+      <c r="G52">
+        <v>2296804.2694680002</v>
+      </c>
+      <c r="H52">
+        <v>2658726.5697479998</v>
+      </c>
+      <c r="I52" s="34">
+        <v>3747645.342857</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A53" s="33">
+        <v>67</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>6.0425769999999996</v>
+      </c>
+      <c r="E53">
+        <v>82.439216000000002</v>
+      </c>
+      <c r="F53">
+        <v>221.253221</v>
+      </c>
+      <c r="G53">
+        <v>255.01008400000001</v>
+      </c>
+      <c r="H53">
+        <v>341.45994400000001</v>
+      </c>
+      <c r="I53" s="34">
+        <v>418.83417400000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A54" s="33">
+        <v>68</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>8.2061620000000008</v>
+      </c>
+      <c r="E54">
+        <v>26125188.453221001</v>
+      </c>
+      <c r="F54">
+        <v>42213636.920449004</v>
+      </c>
+      <c r="G54">
+        <v>53999882.244259</v>
+      </c>
+      <c r="H54">
+        <v>54653695.982074</v>
+      </c>
+      <c r="I54" s="34">
+        <v>53659385.998319998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A55" s="33"/>
+      <c r="I55" s="34"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A56" s="43"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="44">
+        <f>SUM(D43:D54)/1000000</f>
+        <v>8.0904760999999991E-5</v>
+      </c>
+      <c r="E56" s="44">
+        <f t="shared" ref="E56:I56" si="2">SUM(E43:E54)/1000000</f>
+        <v>102.76168185378302</v>
+      </c>
+      <c r="F56" s="44">
+        <f t="shared" si="2"/>
+        <v>182.79244606890703</v>
+      </c>
+      <c r="G56" s="44">
+        <f t="shared" si="2"/>
+        <v>255.24142565826003</v>
+      </c>
+      <c r="H56" s="44">
+        <f t="shared" si="2"/>
+        <v>313.09417301232406</v>
+      </c>
+      <c r="I56" s="45">
+        <f t="shared" si="2"/>
+        <v>358.4916479400589</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A60" s="29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A61" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="31">
+        <v>2018</v>
+      </c>
+      <c r="C61" s="31">
+        <v>2020</v>
+      </c>
+      <c r="D61" s="31">
+        <v>2025</v>
+      </c>
+      <c r="E61" s="31">
+        <v>2030</v>
+      </c>
+      <c r="F61" s="31">
+        <v>2035</v>
+      </c>
+      <c r="G61" s="31">
+        <v>2040</v>
+      </c>
+      <c r="H61" s="31">
+        <v>2045</v>
+      </c>
+      <c r="I61" s="32">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A62" s="33">
+        <v>57</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>242065.04481799999</v>
+      </c>
+      <c r="E62">
+        <v>970202.96470600006</v>
+      </c>
+      <c r="F62">
+        <v>938589.58263299998</v>
+      </c>
+      <c r="G62">
+        <v>825068.78599400003</v>
+      </c>
+      <c r="H62">
+        <v>834255.141176</v>
+      </c>
+      <c r="I62" s="34">
+        <v>914694.83809500001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A63" s="33">
+        <v>58</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>69.771989000000005</v>
+      </c>
+      <c r="E63">
+        <v>924232.57030799997</v>
+      </c>
+      <c r="F63">
+        <v>931016.74229700002</v>
+      </c>
+      <c r="G63">
+        <v>1678827.998319</v>
+      </c>
+      <c r="H63">
+        <v>3442026.691877</v>
+      </c>
+      <c r="I63" s="34">
+        <v>3644180.1182070002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A64" s="33">
+        <v>59</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>11.699719999999999</v>
+      </c>
+      <c r="E64">
+        <v>73.925489999999996</v>
+      </c>
+      <c r="F64">
+        <v>8652332.841457</v>
+      </c>
+      <c r="G64">
+        <v>16542905.55294</v>
+      </c>
+      <c r="H64">
+        <v>27007369.739498001</v>
+      </c>
+      <c r="I64" s="34">
+        <v>28213529.764706001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A65" s="33">
+        <v>60</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>41.394958000000003</v>
+      </c>
+      <c r="E65">
+        <v>2434755.4420170002</v>
+      </c>
+      <c r="F65">
+        <v>2207170.5574230002</v>
+      </c>
+      <c r="G65">
+        <v>2146983.5411769999</v>
+      </c>
+      <c r="H65">
+        <v>2447144.6168069998</v>
+      </c>
+      <c r="I65" s="34">
+        <v>3911836.9327730001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A66" s="33">
+        <v>61</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>642699.90476199996</v>
+      </c>
+      <c r="E66">
+        <v>11728533.724370001</v>
+      </c>
+      <c r="F66">
+        <v>27396226.019609999</v>
+      </c>
+      <c r="G66">
+        <v>40214022.329411998</v>
+      </c>
+      <c r="H66">
+        <v>50847552.855465002</v>
+      </c>
+      <c r="I66" s="34">
+        <v>51858623.841459997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A67" s="33">
+        <v>62</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>379973.508684</v>
+      </c>
+      <c r="E67">
+        <v>1098815.243697</v>
+      </c>
+      <c r="F67">
+        <v>7368601.3680670001</v>
+      </c>
+      <c r="G67">
+        <v>17455982.488513999</v>
+      </c>
+      <c r="H67">
+        <v>20769878.636973001</v>
+      </c>
+      <c r="I67" s="34">
+        <v>22296946.547897998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A68" s="33">
+        <v>63</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>560629.88459399994</v>
+      </c>
+      <c r="E68">
+        <v>21785330.455460999</v>
+      </c>
+      <c r="F68">
+        <v>42524999.797201</v>
+      </c>
+      <c r="G68">
+        <v>50690083.956303</v>
+      </c>
+      <c r="H68">
+        <v>49803853.781515002</v>
+      </c>
+      <c r="I68" s="34">
+        <v>53547839.738376997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A69" s="33">
+        <v>64</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>19422.031373000002</v>
+      </c>
+      <c r="E69">
+        <v>3243723.3624649998</v>
+      </c>
+      <c r="F69">
+        <v>8088609.2056029998</v>
+      </c>
+      <c r="G69">
+        <v>12756112.418486999</v>
+      </c>
+      <c r="H69">
+        <v>12636367.027450001</v>
+      </c>
+      <c r="I69" s="34">
+        <v>12779147.456021</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A70" s="33">
+        <v>65</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>43755.387114999998</v>
+      </c>
+      <c r="E70">
+        <v>693534.18431399995</v>
+      </c>
+      <c r="F70">
+        <v>710977.73389399995</v>
+      </c>
+      <c r="G70">
+        <v>599639.79551800003</v>
+      </c>
+      <c r="H70">
+        <v>671616.39887999999</v>
+      </c>
+      <c r="I70" s="34">
+        <v>751997.55238100002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A71" s="33">
+        <v>66</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>323996.81680700002</v>
+      </c>
+      <c r="E71">
+        <v>1282469.0095240001</v>
+      </c>
+      <c r="F71">
+        <v>1819438.229692</v>
+      </c>
+      <c r="G71">
+        <v>1818329.461625</v>
+      </c>
+      <c r="H71">
+        <v>1700369.8767510001</v>
+      </c>
+      <c r="I71" s="34">
+        <v>2116749.059384</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A72" s="33">
+        <v>67</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>304853.65042000002</v>
+      </c>
+      <c r="E72">
+        <v>947713.93501400005</v>
+      </c>
+      <c r="F72">
+        <v>688017.91372499999</v>
+      </c>
+      <c r="G72">
+        <v>603974.81400599994</v>
+      </c>
+      <c r="H72">
+        <v>619165.26050400001</v>
+      </c>
+      <c r="I72" s="34">
+        <v>585109.32941200002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A73" s="33">
+        <v>68</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>41.519888000000002</v>
+      </c>
+      <c r="E73">
+        <v>16256871.269466</v>
+      </c>
+      <c r="F73">
+        <v>24570016.856582999</v>
+      </c>
+      <c r="G73">
+        <v>28912291.346779</v>
+      </c>
+      <c r="H73">
+        <v>34774017.683475003</v>
+      </c>
+      <c r="I73" s="34">
+        <v>36015753.094679996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A74" s="33"/>
+      <c r="I74" s="34"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A75" s="43"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="D75" s="44">
+        <f>SUM(D62:D73)/1000000</f>
+        <v>2.5175606151279997</v>
+      </c>
+      <c r="E75" s="44">
+        <f t="shared" ref="E75:I75" si="3">SUM(E62:E73)/1000000</f>
+        <v>61.366256086832003</v>
+      </c>
+      <c r="F75" s="44">
+        <f t="shared" si="3"/>
+        <v>125.89599684818502</v>
+      </c>
+      <c r="G75" s="44">
+        <f t="shared" si="3"/>
+        <v>174.24422248907402</v>
+      </c>
+      <c r="H75" s="44">
+        <f t="shared" si="3"/>
+        <v>205.55361771037101</v>
+      </c>
+      <c r="I75" s="45">
+        <f t="shared" si="3"/>
+        <v>216.63640827339398</v>
       </c>
     </row>
   </sheetData>
@@ -2447,21 +4232,28 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.73046875" customWidth="1"/>
+    <col min="1" max="1" width="19.796875" customWidth="1"/>
     <col min="2" max="2" width="9.1328125" customWidth="1"/>
+    <col min="12" max="14" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="24" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="32" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="12" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B1" s="4">
         <v>2017</v>
@@ -2567,1404 +4359,141 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A2" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="14">
-        <f t="shared" ref="B2:C2" si="0">C2</f>
-        <v>5237420</v>
-      </c>
-      <c r="C2" s="14">
-        <f t="shared" si="0"/>
-        <v>5237420</v>
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2" s="14">
-        <f>E2</f>
-        <v>5237420</v>
+        <v>0</v>
       </c>
       <c r="E2" s="14">
-        <f>'Texas Data'!B26</f>
-        <v>5237420</v>
+        <f>'Texas Data'!B41*1000000</f>
+        <v>31290</v>
       </c>
       <c r="F2" s="14">
         <f>0.9*E2+0.1*O2</f>
-        <v>5237420</v>
+        <v>14552305.3143415</v>
       </c>
       <c r="G2" s="14">
         <f>0.8*E2+0.2*O2</f>
-        <v>5237420</v>
+        <v>29073320.628683001</v>
       </c>
       <c r="H2" s="14">
         <f>0.7*E2+0.3*O2</f>
-        <v>5237420</v>
+        <v>43594335.943024501</v>
       </c>
       <c r="I2" s="14">
         <f>0.6*E2+0.4*O2</f>
-        <v>5237420</v>
+        <v>58115351.257366002</v>
       </c>
       <c r="J2" s="14">
         <f>0.5*E2+0.5*O2</f>
-        <v>5237420</v>
+        <v>72636366.571707502</v>
       </c>
       <c r="K2" s="14">
         <f>0.4*E2+0.6*O2</f>
-        <v>5237420</v>
+        <v>87157381.886049002</v>
       </c>
       <c r="L2" s="14">
         <f>0.3*E2+0.7*O2</f>
-        <v>5237420</v>
+        <v>101678397.2003905</v>
       </c>
       <c r="M2" s="14">
         <f>0.2*E2+0.8*O2</f>
-        <v>5237420</v>
+        <v>116199412.514732</v>
       </c>
       <c r="N2" s="14">
         <f>0.1*E2+0.9*O2</f>
-        <v>5237420</v>
+        <v>130720427.8290735</v>
       </c>
       <c r="O2" s="14">
-        <f>'Texas Data'!C26</f>
-        <v>5237420</v>
+        <f>'Texas Data'!C41*1000000</f>
+        <v>145241443.143415</v>
       </c>
       <c r="P2" s="14">
         <f>0.9*O2+0.1*Y2</f>
-        <v>5237420</v>
+        <v>179863639.00190222</v>
       </c>
       <c r="Q2" s="14">
         <f>0.8*O2+0.2*Y2</f>
-        <v>5237420</v>
+        <v>214485834.86038941</v>
       </c>
       <c r="R2" s="14">
         <f>0.7*O2+0.3*Y2</f>
-        <v>5237420</v>
+        <v>249108030.7188766</v>
       </c>
       <c r="S2" s="14">
         <f>0.6*O2+0.4*Y2</f>
-        <v>5237420</v>
+        <v>283730226.57736385</v>
       </c>
       <c r="T2" s="14">
         <f>0.5*O2+0.5*Y2</f>
-        <v>5237420</v>
+        <v>318352422.43585098</v>
       </c>
       <c r="U2" s="14">
         <f>0.4*O2+0.6*Y2</f>
-        <v>5237420</v>
+        <v>352974618.29433817</v>
       </c>
       <c r="V2" s="14">
         <f>0.3*O2+0.7*Y2</f>
-        <v>5237420</v>
+        <v>387596814.15282536</v>
       </c>
       <c r="W2" s="14">
         <f>0.2*O2+0.8*Y2</f>
-        <v>5237420</v>
+        <v>422219010.0113126</v>
       </c>
       <c r="X2" s="14">
         <f>0.1*O2+0.9*Y2</f>
-        <v>5237420</v>
+        <v>456841205.86979979</v>
       </c>
       <c r="Y2" s="14">
-        <f>'Texas Data'!D26</f>
-        <v>5237420</v>
+        <f>'Texas Data'!D41*1000000</f>
+        <v>491463401.72828698</v>
       </c>
       <c r="Z2" s="14">
         <f>0.9*Y2+0.1*AI2</f>
-        <v>5237420</v>
+        <v>532317061.55545831</v>
       </c>
       <c r="AA2" s="14">
         <f>0.8*Y2+0.2*AI2</f>
-        <v>5237420</v>
+        <v>573170721.38262963</v>
       </c>
       <c r="AB2" s="14">
         <f>0.7*Y2+0.3*AI2</f>
-        <v>5237420</v>
+        <v>614024381.20980084</v>
       </c>
       <c r="AC2" s="14">
         <f>0.6*Y2+0.4*AI2</f>
-        <v>5237420</v>
+        <v>654878041.03697217</v>
       </c>
       <c r="AD2" s="14">
         <f>0.5*Y2+0.5*AI2</f>
-        <v>5237420</v>
+        <v>695731700.86414349</v>
       </c>
       <c r="AE2" s="14">
         <f>0.4*Y2+0.6*AI2</f>
-        <v>5237420</v>
+        <v>736585360.69131482</v>
       </c>
       <c r="AF2" s="14">
         <f>0.3*Y2+0.7*AI2</f>
-        <v>5237420</v>
+        <v>777439020.51848602</v>
       </c>
       <c r="AG2" s="14">
         <f>0.2*Y2+0.8*AI2</f>
-        <v>5237420</v>
+        <v>818292680.34565735</v>
       </c>
       <c r="AH2" s="14">
         <f>0.1*Y2+0.9*AI2</f>
-        <v>5237420</v>
-      </c>
-      <c r="AI2" s="14">
-        <f>'Texas Data'!E26</f>
-        <v>5237420</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A3" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="14">
-        <f t="shared" ref="C3:R11" si="1">$B3</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E3" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F3" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G3" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H3" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I3" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J3" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K3" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L3" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M3" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N3" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O3" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P3" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R3" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S3" s="14">
-        <f t="shared" ref="D3:AI10" si="2">$B3</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U3" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V3" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W3" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X3" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD3" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH3" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AI3" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="14">
-        <v>0</v>
-      </c>
-      <c r="C4" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AI4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A5" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S5" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T5" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U5" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V5" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W5" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X5" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD5" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE5" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF5" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG5" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH5" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AI5" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A6" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T6" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X6" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD6" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH6" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AI6" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A7" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T7" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U7" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W7" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X7" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD7" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE7" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG7" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH7" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AI7" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A8" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S8" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T8" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U8" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W8" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X8" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD8" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE8" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG8" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH8" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AI8" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A9" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U9" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W9" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X9" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE9" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF9" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG9" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH9" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AI9" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A10" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="14">
-        <f t="shared" ref="D10:AI11" si="3">$B10</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U10" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W10" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X10" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE10" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF10" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG10" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH10" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AI10" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A11" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U11" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X11" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD11" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE11" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF11" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG11" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH11" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AI11" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>859146340.17282867</v>
+      </c>
+      <c r="AI2">
+        <f>'Texas Data'!E41*1000000</f>
+        <v>900000000</v>
       </c>
     </row>
   </sheetData>
@@ -3977,15 +4506,1545 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
+  <dimension ref="A1:AI11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="4">
+        <v>2017</v>
+      </c>
+      <c r="C1">
+        <v>2018</v>
+      </c>
+      <c r="D1">
+        <v>2019</v>
+      </c>
+      <c r="E1">
+        <v>2020</v>
+      </c>
+      <c r="F1">
+        <v>2021</v>
+      </c>
+      <c r="G1">
+        <v>2022</v>
+      </c>
+      <c r="H1">
+        <v>2023</v>
+      </c>
+      <c r="I1">
+        <v>2024</v>
+      </c>
+      <c r="J1">
+        <v>2025</v>
+      </c>
+      <c r="K1">
+        <v>2026</v>
+      </c>
+      <c r="L1">
+        <v>2027</v>
+      </c>
+      <c r="M1">
+        <v>2028</v>
+      </c>
+      <c r="N1">
+        <v>2029</v>
+      </c>
+      <c r="O1">
+        <v>2030</v>
+      </c>
+      <c r="P1">
+        <v>2031</v>
+      </c>
+      <c r="Q1">
+        <v>2032</v>
+      </c>
+      <c r="R1">
+        <v>2033</v>
+      </c>
+      <c r="S1">
+        <v>2034</v>
+      </c>
+      <c r="T1">
+        <v>2035</v>
+      </c>
+      <c r="U1">
+        <v>2036</v>
+      </c>
+      <c r="V1">
+        <v>2037</v>
+      </c>
+      <c r="W1">
+        <v>2038</v>
+      </c>
+      <c r="X1">
+        <v>2039</v>
+      </c>
+      <c r="Y1">
+        <v>2040</v>
+      </c>
+      <c r="Z1">
+        <v>2041</v>
+      </c>
+      <c r="AA1">
+        <v>2042</v>
+      </c>
+      <c r="AB1">
+        <v>2043</v>
+      </c>
+      <c r="AC1">
+        <v>2044</v>
+      </c>
+      <c r="AD1">
+        <v>2045</v>
+      </c>
+      <c r="AE1">
+        <v>2046</v>
+      </c>
+      <c r="AF1">
+        <v>2047</v>
+      </c>
+      <c r="AG1">
+        <v>2048</v>
+      </c>
+      <c r="AH1">
+        <v>2049</v>
+      </c>
+      <c r="AI1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A2" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="14">
+        <f t="shared" ref="B2:C2" si="0">C2</f>
+        <v>5237420</v>
+      </c>
+      <c r="C2" s="14">
+        <f t="shared" si="0"/>
+        <v>5237420</v>
+      </c>
+      <c r="D2" s="14">
+        <f>E2</f>
+        <v>5237420</v>
+      </c>
+      <c r="E2" s="14">
+        <f>'Texas Data'!B26</f>
+        <v>5237420</v>
+      </c>
+      <c r="F2" s="14">
+        <f>0.9*E2+0.1*O2</f>
+        <v>5237420</v>
+      </c>
+      <c r="G2" s="14">
+        <f>0.8*E2+0.2*O2</f>
+        <v>5237420</v>
+      </c>
+      <c r="H2" s="14">
+        <f>0.7*E2+0.3*O2</f>
+        <v>5237420</v>
+      </c>
+      <c r="I2" s="14">
+        <f>0.6*E2+0.4*O2</f>
+        <v>5237420</v>
+      </c>
+      <c r="J2" s="14">
+        <f>0.5*E2+0.5*O2</f>
+        <v>5237420</v>
+      </c>
+      <c r="K2" s="14">
+        <f>0.4*E2+0.6*O2</f>
+        <v>5237420</v>
+      </c>
+      <c r="L2" s="14">
+        <f>0.3*E2+0.7*O2</f>
+        <v>5237420</v>
+      </c>
+      <c r="M2" s="14">
+        <f>0.2*E2+0.8*O2</f>
+        <v>5237420</v>
+      </c>
+      <c r="N2" s="14">
+        <f>0.1*E2+0.9*O2</f>
+        <v>5237420</v>
+      </c>
+      <c r="O2" s="14">
+        <f>'Texas Data'!C26</f>
+        <v>5237420</v>
+      </c>
+      <c r="P2" s="14">
+        <f>0.9*O2+0.1*Y2</f>
+        <v>5237420</v>
+      </c>
+      <c r="Q2" s="14">
+        <f>0.8*O2+0.2*Y2</f>
+        <v>5237420</v>
+      </c>
+      <c r="R2" s="14">
+        <f>0.7*O2+0.3*Y2</f>
+        <v>5237420</v>
+      </c>
+      <c r="S2" s="14">
+        <f>0.6*O2+0.4*Y2</f>
+        <v>5237420</v>
+      </c>
+      <c r="T2" s="14">
+        <f>0.5*O2+0.5*Y2</f>
+        <v>5237420</v>
+      </c>
+      <c r="U2" s="14">
+        <f>0.4*O2+0.6*Y2</f>
+        <v>5237420</v>
+      </c>
+      <c r="V2" s="14">
+        <f>0.3*O2+0.7*Y2</f>
+        <v>5237420</v>
+      </c>
+      <c r="W2" s="14">
+        <f>0.2*O2+0.8*Y2</f>
+        <v>5237420</v>
+      </c>
+      <c r="X2" s="14">
+        <f>0.1*O2+0.9*Y2</f>
+        <v>5237420</v>
+      </c>
+      <c r="Y2" s="14">
+        <f>'Texas Data'!D26</f>
+        <v>5237420</v>
+      </c>
+      <c r="Z2" s="14">
+        <f>0.9*Y2+0.1*AI2</f>
+        <v>5237420</v>
+      </c>
+      <c r="AA2" s="14">
+        <f>0.8*Y2+0.2*AI2</f>
+        <v>5237420</v>
+      </c>
+      <c r="AB2" s="14">
+        <f>0.7*Y2+0.3*AI2</f>
+        <v>5237420</v>
+      </c>
+      <c r="AC2" s="14">
+        <f>0.6*Y2+0.4*AI2</f>
+        <v>5237420</v>
+      </c>
+      <c r="AD2" s="14">
+        <f>0.5*Y2+0.5*AI2</f>
+        <v>5237420</v>
+      </c>
+      <c r="AE2" s="14">
+        <f>0.4*Y2+0.6*AI2</f>
+        <v>5237420</v>
+      </c>
+      <c r="AF2" s="14">
+        <f>0.3*Y2+0.7*AI2</f>
+        <v>5237420</v>
+      </c>
+      <c r="AG2" s="14">
+        <f>0.2*Y2+0.8*AI2</f>
+        <v>5237420</v>
+      </c>
+      <c r="AH2" s="14">
+        <f>0.1*Y2+0.9*AI2</f>
+        <v>5237420</v>
+      </c>
+      <c r="AI2" s="14">
+        <f>'Texas Data'!E26</f>
+        <v>5237420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A3" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14">
+        <f t="shared" ref="C3:R11" si="1">$B3</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S3" s="14">
+        <f t="shared" ref="D3:AI10" si="2">$B3</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V3" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W3" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X3" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="14">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S4" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U4" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W4" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X4" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A5" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A6" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A7" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A8" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A9" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A10" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="14">
+        <f t="shared" ref="D10:AI11" si="3">$B10</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.73046875" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
     <col min="2" max="2" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
